--- a/Excel Data/DevopsTC_customerIndividual.xlsx
+++ b/Excel Data/DevopsTC_customerIndividual.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="old sheet" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AJ$1:$AJ$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AJ$1:$AJ$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="238">
   <si>
     <t>SECTOR</t>
   </si>
@@ -718,6 +719,30 @@
   </si>
   <si>
     <t>4210136648795</t>
+  </si>
+  <si>
+    <t>4210136648800</t>
+  </si>
+  <si>
+    <t>4210136648801</t>
+  </si>
+  <si>
+    <t>4210136648802</t>
+  </si>
+  <si>
+    <t>4210136648803</t>
+  </si>
+  <si>
+    <t>4210136648804</t>
+  </si>
+  <si>
+    <t>4210136648806</t>
+  </si>
+  <si>
+    <t>4210136648805</t>
+  </si>
+  <si>
+    <t>4210136648807</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD53"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1337,7 @@
         <v>60000000400</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F2" s="2">
         <v>20800101</v>
@@ -1424,7 +1449,3562 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4210170000010</v>
+      </c>
+      <c r="N3" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W3" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+    </row>
+    <row r="4" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4210170000011</v>
+      </c>
+      <c r="N4" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V4" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W4" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1">
+        <v>104</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1">
+        <v>35850585</v>
+      </c>
+      <c r="BD4" s="1"/>
+    </row>
+    <row r="5" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6">
+        <v>118498</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4210170000029</v>
+      </c>
+      <c r="N5" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W5" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>119</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G6" s="1">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6">
+        <v>118499</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4210170000030</v>
+      </c>
+      <c r="N6" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>20110125</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>804</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>121</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G7" s="1">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6">
+        <v>118500</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4210170000031</v>
+      </c>
+      <c r="N7" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="W7" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>53</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G8" s="1">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4210170000035</v>
+      </c>
+      <c r="N8" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W8" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>19490101</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>106</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1035</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1022</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4210170000042</v>
+      </c>
+      <c r="N9" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V9" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W9" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>6012</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="AJ1:AJ9"/>
+  <sortState ref="G2:BD72">
+    <sortCondition ref="H2:H72"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD19"/>
+  <sheetViews>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>118451</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1">
+        <v>4210170000003</v>
+      </c>
+      <c r="N1" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W1" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>20110125</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>804</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>121</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8">
+        <v>118452</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4210170000004</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20400101</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="1">
+        <v>3420344621</v>
+      </c>
+      <c r="V2" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W2" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>20080418</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>804</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1">
+        <v>3420344621</v>
+      </c>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8">
+        <v>118452</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4210170000005</v>
+      </c>
+      <c r="N3" s="1">
+        <v>20310108</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W3" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>20080621</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>804</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>120</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8">
+        <v>118452</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4210170000006</v>
+      </c>
+      <c r="N4" s="1">
+        <v>20250401</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W4" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>20070331</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>804</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>120</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>139</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8">
+        <v>118452</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4210170000007</v>
+      </c>
+      <c r="N5" s="1">
+        <v>20320114</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W5" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>20140131</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>804</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>120</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>46</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <v>118455</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4210170000013</v>
+      </c>
+      <c r="N6" s="1">
+        <v>20400101</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3420344621</v>
+      </c>
+      <c r="V6" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>20080418</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>804</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>120</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1017</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1">
+        <v>3420344621</v>
+      </c>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>118455</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4210170000014</v>
+      </c>
+      <c r="N7" s="1">
+        <v>20310108</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W7" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>20080621</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>804</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>120</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>6018</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>36</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10">
+        <v>118458</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4210170000015</v>
+      </c>
+      <c r="N8" s="2">
+        <v>20301003</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="2">
+        <v>60000000000</v>
+      </c>
+      <c r="W8" s="2">
+        <v>60000001300</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>19770514</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>6001</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>556</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G9" s="1">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10">
+        <v>118458</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4210170000016</v>
+      </c>
+      <c r="N9" s="2">
+        <v>20301003</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="2">
+        <v>60000000000</v>
+      </c>
+      <c r="W9" s="2">
+        <v>60000001300</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>19770514</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>6001</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>557</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G10" s="1">
+        <v>18</v>
+      </c>
+      <c r="H10" s="10">
+        <v>118458</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4210170000017</v>
+      </c>
+      <c r="N10" s="2">
+        <v>20301003</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="2">
+        <v>60000000000</v>
+      </c>
+      <c r="W10" s="2">
+        <v>60000001300</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>19770514</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>1037</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>557</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G11" s="1">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1">
+        <v>118486</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4210170000018</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W11" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>19440807</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>6025</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
+        <v>118487</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4210170000019</v>
+      </c>
+      <c r="N12" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W12" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>19490101</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1">
+        <v>106</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1035</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1022</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G13" s="1">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6">
+        <v>118489</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4210170000020</v>
+      </c>
+      <c r="N13" s="1">
+        <v>20310306</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>41647000000</v>
+      </c>
+      <c r="W13" s="1">
+        <v>41647479900</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>19710313</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>20010101</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G14" s="1">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6">
+        <v>118490</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4210170000021</v>
+      </c>
+      <c r="N14" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W14" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G15" s="1">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6">
+        <v>118491</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4210170000022</v>
+      </c>
+      <c r="N15" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W15" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G16" s="1">
+        <v>24</v>
+      </c>
+      <c r="H16" s="5">
+        <v>118492</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4210170000023</v>
+      </c>
+      <c r="N16" s="1">
+        <v>20250624</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W16" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>19730609</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>34</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7">
+        <v>118493</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4210170000024</v>
+      </c>
+      <c r="N17" s="1">
+        <v>20230524</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W17" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>19480521</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1">
+        <v>104</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G18" s="1">
+        <v>26</v>
+      </c>
+      <c r="H18" s="6">
+        <v>118494</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4210170000025</v>
+      </c>
+      <c r="N18" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W18" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G19" s="1">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5">
+        <v>118495</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4210170000026</v>
+      </c>
+      <c r="N19" s="1">
+        <v>20261021</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W19" s="1">
+        <v>60000000800</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>19800713</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1">
+        <v>88000316111</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>20400101</v>
+      </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1">
+        <v>144</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>6001</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>7</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>464</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>53</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:BD53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>118448</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4210170000000</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W2" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1">
+        <v>108</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>24</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39</v>
       </c>
@@ -1550,7 +5130,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39</v>
       </c>
@@ -1676,7 +5256,7 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
     </row>
-    <row r="5" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>39</v>
       </c>
@@ -1802,7 +5382,7 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
     </row>
-    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>39</v>
       </c>
@@ -1928,7 +5508,7 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>39</v>
       </c>
@@ -2054,7 +5634,7 @@
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
     </row>
-    <row r="8" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>39</v>
       </c>
@@ -2188,7 +5768,7 @@
       </c>
       <c r="BD8" s="1"/>
     </row>
-    <row r="9" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>39</v>
       </c>
@@ -2219,6 +5799,7 @@
       <c r="J9" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
         <v>68</v>
       </c>
@@ -2237,6 +5818,7 @@
       <c r="Q9" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
         <v>63</v>
       </c>
@@ -2261,9 +5843,19 @@
       <c r="Z9" s="1">
         <v>19670305</v>
       </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
       <c r="AJ9" s="1">
         <v>7</v>
       </c>
+      <c r="AK9" s="1"/>
       <c r="AL9" s="1">
         <v>115</v>
       </c>
@@ -2294,8 +5886,17 @@
       <c r="AU9" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
     </row>
-    <row r="10" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>39</v>
       </c>
@@ -2326,6 +5927,7 @@
       <c r="J10" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
         <v>85</v>
       </c>
@@ -2338,9 +5940,11 @@
       <c r="O10" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2365,9 +5969,19 @@
       <c r="Z10" s="1">
         <v>19670305</v>
       </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
       <c r="AJ10" s="1">
         <v>7</v>
       </c>
+      <c r="AK10" s="1"/>
       <c r="AL10" s="1">
         <v>115</v>
       </c>
@@ -2398,8 +6012,17 @@
       <c r="AU10" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
     </row>
-    <row r="11" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>39</v>
       </c>
@@ -2445,6 +6068,7 @@
       <c r="O11" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
         <v>106</v>
       </c>
@@ -2475,9 +6099,19 @@
       <c r="Z11" s="1">
         <v>19930101</v>
       </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
       <c r="AJ11" s="1">
         <v>2</v>
       </c>
+      <c r="AK11" s="1"/>
       <c r="AL11" s="1">
         <v>104</v>
       </c>
@@ -2505,8 +6139,18 @@
       <c r="AT11" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
     </row>
-    <row r="12" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>39</v>
       </c>
@@ -2537,6 +6181,7 @@
       <c r="J12" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,6 +6200,7 @@
       <c r="Q12" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
         <v>71</v>
       </c>
@@ -2579,9 +6225,19 @@
       <c r="Z12" s="1">
         <v>19651120</v>
       </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
       <c r="AJ12" s="1">
         <v>8</v>
       </c>
+      <c r="AK12" s="1"/>
       <c r="AL12" s="1">
         <v>119</v>
       </c>
@@ -2609,8 +6265,18 @@
       <c r="AT12" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
     </row>
-    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>39</v>
       </c>
@@ -2689,6 +6355,15 @@
       <c r="Z13" s="1">
         <v>20110125</v>
       </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
       <c r="AJ13" s="1">
         <v>9</v>
       </c>
@@ -2722,8 +6397,18 @@
       <c r="AT13" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
     </row>
-    <row r="14" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>39</v>
       </c>
@@ -2775,6 +6460,7 @@
       <c r="Q14" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
         <v>77</v>
       </c>
@@ -2802,9 +6488,18 @@
       <c r="AA14" s="1">
         <v>20020607</v>
       </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
       <c r="AJ14" s="1">
         <v>10</v>
       </c>
+      <c r="AK14" s="1"/>
       <c r="AL14" s="1">
         <v>123</v>
       </c>
@@ -2835,8 +6530,17 @@
       <c r="AU14" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
     </row>
-    <row r="15" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>39</v>
       </c>
@@ -2888,6 +6592,7 @@
       <c r="Q15" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
         <v>77</v>
       </c>
@@ -2915,9 +6620,18 @@
       <c r="AA15" s="1">
         <v>20020607</v>
       </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
       <c r="AJ15" s="1">
         <v>10</v>
       </c>
+      <c r="AK15" s="1"/>
       <c r="AL15" s="1">
         <v>123</v>
       </c>
@@ -2948,8 +6662,17 @@
       <c r="AU15" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
     </row>
-    <row r="16" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>39</v>
       </c>
@@ -2980,6 +6703,7 @@
       <c r="J16" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
         <v>68</v>
       </c>
@@ -2992,9 +6716,11 @@
       <c r="O16" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
         <v>137</v>
       </c>
@@ -3019,9 +6745,19 @@
       <c r="Z16" s="1">
         <v>19540218</v>
       </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
       <c r="AJ16" s="1">
         <v>4</v>
       </c>
+      <c r="AK16" s="1"/>
       <c r="AL16" s="1">
         <v>108</v>
       </c>
@@ -3049,11 +6785,20 @@
       <c r="AT16" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AU16" s="1"/>
       <c r="AV16" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
     </row>
-    <row r="17" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>39</v>
       </c>
@@ -3084,6 +6829,7 @@
       <c r="J17" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
         <v>139</v>
       </c>
@@ -3096,9 +6842,11 @@
       <c r="O17" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
         <v>146</v>
       </c>
@@ -3123,15 +6871,23 @@
       <c r="Z17" s="1">
         <v>19830626</v>
       </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
       <c r="AC17" s="1" t="s">
         <v>148</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
       <c r="AJ17" s="1">
         <v>4</v>
       </c>
+      <c r="AK17" s="1"/>
       <c r="AL17" s="1">
         <v>107</v>
       </c>
@@ -3162,6 +6918,12 @@
       <c r="AU17" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
       <c r="BB17" s="1" t="s">
         <v>151</v>
       </c>
@@ -3172,7 +6934,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>39</v>
       </c>
@@ -3203,6 +6965,7 @@
       <c r="J18" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
         <v>68</v>
       </c>
@@ -3215,6 +6978,7 @@
       <c r="O18" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
         <v>132</v>
       </c>
@@ -3227,6 +6991,7 @@
       <c r="T18" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="U18" s="1"/>
       <c r="V18" s="1">
         <v>60000000000</v>
       </c>
@@ -3242,9 +7007,19 @@
       <c r="Z18" s="1">
         <v>19490101</v>
       </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
       <c r="AJ18" s="1">
         <v>3</v>
       </c>
+      <c r="AK18" s="1"/>
       <c r="AL18" s="1">
         <v>106</v>
       </c>
@@ -3272,8 +7047,18 @@
       <c r="AT18" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
     </row>
-    <row r="19" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39</v>
       </c>
@@ -3304,6 +7089,7 @@
       <c r="J19" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
         <v>139</v>
       </c>
@@ -3316,6 +7102,7 @@
       <c r="O19" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
         <v>155</v>
       </c>
@@ -3346,9 +7133,19 @@
       <c r="Z19" s="1">
         <v>19740510</v>
       </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
       <c r="AJ19" s="1">
         <v>2</v>
       </c>
+      <c r="AK19" s="1"/>
       <c r="AL19" s="1">
         <v>104</v>
       </c>
@@ -3376,6 +7173,7 @@
       <c r="AT19" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AU19" s="1"/>
       <c r="AV19" s="1" t="s">
         <v>159</v>
       </c>
@@ -3385,11 +7183,16 @@
       <c r="AX19" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
       <c r="BC19" s="1">
         <v>35850585</v>
       </c>
+      <c r="BD19" s="1"/>
     </row>
-    <row r="20" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39</v>
       </c>
@@ -3435,9 +7238,11 @@
       <c r="O20" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
         <v>163</v>
       </c>
@@ -3462,9 +7267,19 @@
       <c r="Z20" s="1">
         <v>19560101</v>
       </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
       <c r="AJ20" s="1">
         <v>4</v>
       </c>
+      <c r="AK20" s="1"/>
       <c r="AL20" s="1">
         <v>108</v>
       </c>
@@ -3492,8 +7307,18 @@
       <c r="AT20" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
     </row>
-    <row r="21" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>39</v>
       </c>
@@ -3539,9 +7364,11 @@
       <c r="O21" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
         <v>77</v>
       </c>
@@ -3569,9 +7396,18 @@
       <c r="AA21" s="1">
         <v>20020607</v>
       </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
       <c r="AJ21" s="1">
         <v>10</v>
       </c>
+      <c r="AK21" s="1"/>
       <c r="AL21" s="1">
         <v>123</v>
       </c>
@@ -3602,8 +7438,17 @@
       <c r="AU21" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
     </row>
-    <row r="22" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>39</v>
       </c>
@@ -3634,6 +7479,7 @@
       <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
         <v>68</v>
       </c>
@@ -3646,15 +7492,18 @@
       <c r="O22" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="R22" s="1"/>
       <c r="S22" s="1" t="s">
         <v>167</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U22" s="1"/>
       <c r="V22" s="1">
         <v>60000000000</v>
       </c>
@@ -3670,9 +7519,19 @@
       <c r="Z22" s="1">
         <v>19740820</v>
       </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
       <c r="AJ22" s="1">
         <v>4</v>
       </c>
+      <c r="AK22" s="1"/>
       <c r="AL22" s="1">
         <v>107</v>
       </c>
@@ -3700,8 +7559,18 @@
       <c r="AT22" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
     </row>
-    <row r="23" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>39</v>
       </c>
@@ -3732,6 +7601,7 @@
       <c r="J23" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3744,6 +7614,7 @@
       <c r="O23" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
         <v>169</v>
       </c>
@@ -3774,9 +7645,19 @@
       <c r="Z23" s="1">
         <v>19451012</v>
       </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
       <c r="AJ23" s="1">
         <v>4</v>
       </c>
+      <c r="AK23" s="1"/>
       <c r="AL23" s="1">
         <v>107</v>
       </c>
@@ -3804,8 +7685,18 @@
       <c r="AT23" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
     </row>
-    <row r="24" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>39</v>
       </c>
@@ -3836,6 +7727,7 @@
       <c r="J24" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
         <v>68</v>
       </c>
@@ -3848,6 +7740,7 @@
       <c r="O24" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
         <v>173</v>
       </c>
@@ -3878,9 +7771,19 @@
       <c r="Z24" s="1">
         <v>19881225</v>
       </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
       <c r="AJ24" s="1">
         <v>4</v>
       </c>
+      <c r="AK24" s="1"/>
       <c r="AL24" s="1">
         <v>107</v>
       </c>
@@ -3908,8 +7811,18 @@
       <c r="AT24" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
     </row>
-    <row r="25" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>39</v>
       </c>
@@ -3940,6 +7853,7 @@
       <c r="J25" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
         <v>68</v>
       </c>
@@ -3952,9 +7866,11 @@
       <c r="O25" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="P25" s="1"/>
       <c r="Q25" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
         <v>179</v>
       </c>
@@ -3979,9 +7895,19 @@
       <c r="Z25" s="1">
         <v>19690414</v>
       </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
       <c r="AJ25" s="1">
         <v>6</v>
       </c>
+      <c r="AK25" s="1"/>
       <c r="AL25" s="1">
         <v>114</v>
       </c>
@@ -4009,8 +7935,18 @@
       <c r="AT25" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
     </row>
-    <row r="26" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>39</v>
       </c>
@@ -4041,6 +7977,7 @@
       <c r="J26" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
         <v>68</v>
       </c>
@@ -4053,9 +7990,11 @@
       <c r="O26" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
         <v>63</v>
       </c>
@@ -4080,9 +8019,19 @@
       <c r="Z26" s="1">
         <v>19670305</v>
       </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
       <c r="AJ26" s="1">
         <v>7</v>
       </c>
+      <c r="AK26" s="1"/>
       <c r="AL26" s="1">
         <v>115</v>
       </c>
@@ -4113,8 +8062,17 @@
       <c r="AU26" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
     </row>
-    <row r="27" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>39</v>
       </c>
@@ -4145,6 +8103,7 @@
       <c r="J27" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
         <v>139</v>
       </c>
@@ -4157,15 +8116,18 @@
       <c r="O27" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="R27" s="1"/>
       <c r="S27" s="1" t="s">
         <v>184</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U27" s="1"/>
       <c r="V27" s="1">
         <v>60000000000</v>
       </c>
@@ -4181,9 +8143,19 @@
       <c r="Z27" s="1">
         <v>19830815</v>
       </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
       <c r="AJ27" s="1">
         <v>2</v>
       </c>
+      <c r="AK27" s="1"/>
       <c r="AL27" s="1">
         <v>104</v>
       </c>
@@ -4211,6 +8183,7 @@
       <c r="AT27" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU27" s="1"/>
       <c r="AV27" s="1" t="s">
         <v>185</v>
       </c>
@@ -4220,14 +8193,18 @@
       <c r="AX27" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
       <c r="BB27" s="1">
         <v>3022189662</v>
       </c>
+      <c r="BC27" s="1"/>
       <c r="BD27" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>39</v>
       </c>
@@ -4258,6 +8235,7 @@
       <c r="J28" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
         <v>68</v>
       </c>
@@ -4270,6 +8248,7 @@
       <c r="O28" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1" t="s">
         <v>190</v>
       </c>
@@ -4282,6 +8261,7 @@
       <c r="T28" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U28" s="1"/>
       <c r="V28" s="1">
         <v>60000000000</v>
       </c>
@@ -4297,12 +8277,21 @@
       <c r="Z28" s="1">
         <v>19680101</v>
       </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
       <c r="AJ28" s="1">
         <v>4</v>
       </c>
+      <c r="AK28" s="1"/>
       <c r="AL28" s="1">
         <v>107</v>
       </c>
@@ -4330,8 +8319,18 @@
       <c r="AT28" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
     </row>
-    <row r="29" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>39</v>
       </c>
@@ -4362,6 +8361,7 @@
       <c r="J29" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
         <v>68</v>
       </c>
@@ -4374,15 +8374,18 @@
       <c r="O29" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
         <v>130</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U29" s="1"/>
       <c r="V29" s="1">
         <v>60000000000</v>
       </c>
@@ -4398,9 +8401,19 @@
       <c r="Z29" s="1">
         <v>19440807</v>
       </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
       <c r="AJ29" s="1">
         <v>4</v>
       </c>
+      <c r="AK29" s="1"/>
       <c r="AL29" s="1">
         <v>107</v>
       </c>
@@ -4428,8 +8441,18 @@
       <c r="AT29" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
     </row>
-    <row r="30" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>39</v>
       </c>
@@ -4460,6 +8483,7 @@
       <c r="J30" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
         <v>139</v>
       </c>
@@ -4472,6 +8496,7 @@
       <c r="O30" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
         <v>141</v>
       </c>
@@ -4484,6 +8509,7 @@
       <c r="T30" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U30" s="1"/>
       <c r="V30" s="1">
         <v>60000000000</v>
       </c>
@@ -4499,12 +8525,21 @@
       <c r="Z30" s="1">
         <v>19521208</v>
       </c>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
       <c r="AJ30" s="1">
         <v>2</v>
       </c>
+      <c r="AK30" s="1"/>
       <c r="AL30" s="1">
         <v>104</v>
       </c>
@@ -4532,8 +8567,18 @@
       <c r="AT30" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
     </row>
-    <row r="31" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39</v>
       </c>
@@ -4567,6 +8612,7 @@
       <c r="K31" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="L31" s="1"/>
       <c r="M31" s="1">
         <v>4210170000048</v>
       </c>
@@ -4609,6 +8655,15 @@
       <c r="Z31" s="1">
         <v>20110125</v>
       </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
       <c r="AJ31" s="1">
         <v>9</v>
       </c>
@@ -4642,8 +8697,18 @@
       <c r="AT31" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
     </row>
-    <row r="32" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>39</v>
       </c>
@@ -4674,6 +8739,7 @@
       <c r="J32" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
         <v>68</v>
       </c>
@@ -4686,9 +8752,11 @@
       <c r="O32" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
         <v>63</v>
       </c>
@@ -4713,9 +8781,19 @@
       <c r="Z32" s="1">
         <v>19670305</v>
       </c>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
       <c r="AJ32" s="1">
         <v>7</v>
       </c>
+      <c r="AK32" s="1"/>
       <c r="AL32" s="1">
         <v>115</v>
       </c>
@@ -4746,8 +8824,17 @@
       <c r="AU32" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
     </row>
-    <row r="33" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>39</v>
       </c>
@@ -4778,6 +8865,7 @@
       <c r="J33" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
         <v>68</v>
       </c>
@@ -4790,9 +8878,11 @@
       <c r="O33" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="P33" s="1"/>
       <c r="Q33" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
         <v>137</v>
       </c>
@@ -4817,9 +8907,19 @@
       <c r="Z33" s="1">
         <v>19540218</v>
       </c>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
       <c r="AJ33" s="1">
         <v>4</v>
       </c>
+      <c r="AK33" s="1"/>
       <c r="AL33" s="1">
         <v>108</v>
       </c>
@@ -4847,11 +8947,20 @@
       <c r="AT33" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AU33" s="1"/>
       <c r="AV33" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
     </row>
-    <row r="34" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>39</v>
       </c>
@@ -4882,6 +8991,7 @@
       <c r="J34" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
         <v>139</v>
       </c>
@@ -4894,6 +9004,7 @@
       <c r="O34" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="P34" s="1"/>
       <c r="Q34" s="1" t="s">
         <v>141</v>
       </c>
@@ -4906,6 +9017,7 @@
       <c r="T34" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U34" s="1"/>
       <c r="V34" s="1">
         <v>60000000000</v>
       </c>
@@ -4921,12 +9033,21 @@
       <c r="Z34" s="1">
         <v>19881208</v>
       </c>
+      <c r="AA34" s="1"/>
       <c r="AB34" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
       <c r="AJ34" s="1">
         <v>2</v>
       </c>
+      <c r="AK34" s="1"/>
       <c r="AL34" s="1">
         <v>104</v>
       </c>
@@ -4954,8 +9075,18 @@
       <c r="AT34" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
     </row>
-    <row r="35" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>39</v>
       </c>
@@ -4986,6 +9117,7 @@
       <c r="J35" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
         <v>139</v>
       </c>
@@ -4998,9 +9130,11 @@
       <c r="O35" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
         <v>146</v>
       </c>
@@ -5025,15 +9159,23 @@
       <c r="Z35" s="1">
         <v>19830626</v>
       </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
         <v>148</v>
       </c>
       <c r="AD35" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
       <c r="AJ35" s="1">
         <v>4</v>
       </c>
+      <c r="AK35" s="1"/>
       <c r="AL35" s="1">
         <v>107</v>
       </c>
@@ -5064,6 +9206,12 @@
       <c r="AU35" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
       <c r="BB35" s="1" t="s">
         <v>151</v>
       </c>
@@ -5074,7 +9222,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>39</v>
       </c>
@@ -5105,6 +9253,7 @@
       <c r="J36" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
         <v>68</v>
       </c>
@@ -5117,6 +9266,7 @@
       <c r="O36" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="P36" s="1"/>
       <c r="Q36" s="1" t="s">
         <v>132</v>
       </c>
@@ -5129,6 +9279,7 @@
       <c r="T36" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="U36" s="1"/>
       <c r="V36" s="1">
         <v>60000000000</v>
       </c>
@@ -5144,9 +9295,19 @@
       <c r="Z36" s="1">
         <v>19490101</v>
       </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
       <c r="AJ36" s="1">
         <v>3</v>
       </c>
+      <c r="AK36" s="1"/>
       <c r="AL36" s="1">
         <v>106</v>
       </c>
@@ -5174,8 +9335,18 @@
       <c r="AT36" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
     </row>
-    <row r="37" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>39</v>
       </c>
@@ -5206,6 +9377,7 @@
       <c r="J37" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
         <v>139</v>
       </c>
@@ -5218,6 +9390,7 @@
       <c r="O37" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
         <v>155</v>
       </c>
@@ -5248,9 +9421,19 @@
       <c r="Z37" s="1">
         <v>19740510</v>
       </c>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
       <c r="AJ37" s="1">
         <v>2</v>
       </c>
+      <c r="AK37" s="1"/>
       <c r="AL37" s="1">
         <v>104</v>
       </c>
@@ -5278,6 +9461,7 @@
       <c r="AT37" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AU37" s="1"/>
       <c r="AV37" s="1" t="s">
         <v>159</v>
       </c>
@@ -5287,11 +9471,16 @@
       <c r="AX37" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
       <c r="BC37" s="1">
         <v>35850585</v>
       </c>
+      <c r="BD37" s="1"/>
     </row>
-    <row r="38" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39</v>
       </c>
@@ -5337,9 +9526,11 @@
       <c r="O38" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
         <v>163</v>
       </c>
@@ -5364,9 +9555,19 @@
       <c r="Z38" s="1">
         <v>19560101</v>
       </c>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
       <c r="AJ38" s="1">
         <v>4</v>
       </c>
+      <c r="AK38" s="1"/>
       <c r="AL38" s="1">
         <v>108</v>
       </c>
@@ -5394,8 +9595,18 @@
       <c r="AT38" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
     </row>
-    <row r="39" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -5441,9 +9652,11 @@
       <c r="O39" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
         <v>77</v>
       </c>
@@ -5471,9 +9684,18 @@
       <c r="AA39" s="1">
         <v>20020607</v>
       </c>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
       <c r="AJ39" s="1">
         <v>10</v>
       </c>
+      <c r="AK39" s="1"/>
       <c r="AL39" s="1">
         <v>123</v>
       </c>
@@ -5504,8 +9726,17 @@
       <c r="AU39" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
     </row>
-    <row r="40" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5536,6 +9767,7 @@
       <c r="J40" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
         <v>68</v>
       </c>
@@ -5548,15 +9780,18 @@
       <c r="O40" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="P40" s="1"/>
       <c r="Q40" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="R40" s="1"/>
       <c r="S40" s="1" t="s">
         <v>167</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U40" s="1"/>
       <c r="V40" s="1">
         <v>60000000000</v>
       </c>
@@ -5572,9 +9807,19 @@
       <c r="Z40" s="1">
         <v>19740820</v>
       </c>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
       <c r="AJ40" s="1">
         <v>4</v>
       </c>
+      <c r="AK40" s="1"/>
       <c r="AL40" s="1">
         <v>107</v>
       </c>
@@ -5602,8 +9847,18 @@
       <c r="AT40" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
     </row>
-    <row r="41" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -5634,6 +9889,7 @@
       <c r="J41" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
         <v>68</v>
       </c>
@@ -5646,6 +9902,7 @@
       <c r="O41" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
         <v>169</v>
       </c>
@@ -5676,9 +9933,19 @@
       <c r="Z41" s="1">
         <v>19451012</v>
       </c>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
       <c r="AJ41" s="1">
         <v>4</v>
       </c>
+      <c r="AK41" s="1"/>
       <c r="AL41" s="1">
         <v>107</v>
       </c>
@@ -5706,8 +9973,18 @@
       <c r="AT41" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
     </row>
-    <row r="42" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5738,6 +10015,7 @@
       <c r="J42" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
         <v>68</v>
       </c>
@@ -5750,9 +10028,11 @@
       <c r="O42" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="R42" s="1"/>
       <c r="S42" s="1" t="s">
         <v>179</v>
       </c>
@@ -5777,9 +10057,19 @@
       <c r="Z42" s="1">
         <v>19690414</v>
       </c>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
       <c r="AJ42" s="1">
         <v>6</v>
       </c>
+      <c r="AK42" s="1"/>
       <c r="AL42" s="1">
         <v>114</v>
       </c>
@@ -5807,8 +10097,18 @@
       <c r="AT42" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
     </row>
-    <row r="43" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -6064,7 +10364,7 @@
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
     </row>
-    <row r="45" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -6095,6 +10395,7 @@
       <c r="J45" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
         <v>68</v>
       </c>
@@ -6107,6 +10408,7 @@
       <c r="O45" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
         <v>173</v>
       </c>
@@ -6137,9 +10439,19 @@
       <c r="Z45" s="1">
         <v>19881225</v>
       </c>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
       <c r="AJ45" s="1">
         <v>4</v>
       </c>
+      <c r="AK45" s="1"/>
       <c r="AL45" s="1">
         <v>107</v>
       </c>
@@ -6167,8 +10479,18 @@
       <c r="AT45" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
     </row>
-    <row r="46" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>39</v>
       </c>
@@ -6199,6 +10521,7 @@
       <c r="J46" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
         <v>139</v>
       </c>
@@ -6211,15 +10534,18 @@
       <c r="O46" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
         <v>184</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U46" s="1"/>
       <c r="V46" s="1">
         <v>60000000000</v>
       </c>
@@ -6235,9 +10561,19 @@
       <c r="Z46" s="1">
         <v>19830815</v>
       </c>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
       <c r="AJ46" s="1">
         <v>2</v>
       </c>
+      <c r="AK46" s="1"/>
       <c r="AL46" s="1">
         <v>104</v>
       </c>
@@ -6265,6 +10601,7 @@
       <c r="AT46" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU46" s="1"/>
       <c r="AV46" s="1" t="s">
         <v>185</v>
       </c>
@@ -6274,14 +10611,18 @@
       <c r="AX46" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
       <c r="BB46" s="1">
         <v>3022189662</v>
       </c>
+      <c r="BC46" s="1"/>
       <c r="BD46" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>39</v>
       </c>
@@ -6312,6 +10653,7 @@
       <c r="J47" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
         <v>68</v>
       </c>
@@ -6324,15 +10666,18 @@
       <c r="O47" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
         <v>130</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U47" s="1"/>
       <c r="V47" s="1">
         <v>60000000000</v>
       </c>
@@ -6348,9 +10693,19 @@
       <c r="Z47" s="1">
         <v>19440807</v>
       </c>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
       <c r="AJ47" s="1">
         <v>4</v>
       </c>
+      <c r="AK47" s="1"/>
       <c r="AL47" s="1">
         <v>107</v>
       </c>
@@ -6378,8 +10733,18 @@
       <c r="AT47" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
     </row>
-    <row r="48" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>39</v>
       </c>
@@ -6425,9 +10790,11 @@
       <c r="O48" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
         <v>77</v>
       </c>
@@ -6455,9 +10822,18 @@
       <c r="AA48" s="1">
         <v>20020607</v>
       </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
       <c r="AJ48" s="1">
         <v>10</v>
       </c>
+      <c r="AK48" s="1"/>
       <c r="AL48" s="1">
         <v>123</v>
       </c>
@@ -6488,8 +10864,17 @@
       <c r="AU48" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
     </row>
-    <row r="49" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>39</v>
       </c>
@@ -6535,9 +10920,11 @@
       <c r="O49" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
         <v>77</v>
       </c>
@@ -6565,9 +10952,18 @@
       <c r="AA49" s="1">
         <v>20020607</v>
       </c>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
       <c r="AJ49" s="1">
         <v>10</v>
       </c>
+      <c r="AK49" s="1"/>
       <c r="AL49" s="1">
         <v>123</v>
       </c>
@@ -6598,8 +10994,17 @@
       <c r="AU49" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
     </row>
-    <row r="50" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>39</v>
       </c>
@@ -6630,6 +11035,7 @@
       <c r="J50" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="K50" s="1"/>
       <c r="L50" s="1" t="s">
         <v>68</v>
       </c>
@@ -6642,15 +11048,18 @@
       <c r="O50" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
         <v>167</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="U50" s="1"/>
       <c r="V50" s="1">
         <v>60000000000</v>
       </c>
@@ -6666,9 +11075,19 @@
       <c r="Z50" s="1">
         <v>19740820</v>
       </c>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
       <c r="AJ50" s="1">
         <v>4</v>
       </c>
+      <c r="AK50" s="1"/>
       <c r="AL50" s="1">
         <v>107</v>
       </c>
@@ -6696,8 +11115,18 @@
       <c r="AT50" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
     </row>
-    <row r="51" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>39</v>
       </c>
@@ -6821,7 +11250,7 @@
       <c r="BC51" s="1"/>
       <c r="BD51" s="1"/>
     </row>
-    <row r="52" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>39</v>
       </c>
@@ -6945,7 +11374,7 @@
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
     </row>
-    <row r="53" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>39</v>
       </c>
@@ -7070,2458 +11499,6 @@
       <c r="BD53" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="AJ1:AJ53"/>
-  <sortState ref="G2:BD72">
-    <sortCondition ref="H2:H72"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1">
-        <v>118451</v>
-      </c>
-      <c r="I1" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="1">
-        <v>4210170000003</v>
-      </c>
-      <c r="N1" s="1">
-        <v>20491231</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W1" s="1">
-        <v>60000001100</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>20110125</v>
-      </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>804</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>121</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>1005</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>9</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>1081</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8">
-        <v>118452</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="1">
-        <v>4210170000004</v>
-      </c>
-      <c r="N2" s="1">
-        <v>20400101</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="1">
-        <v>3420344621</v>
-      </c>
-      <c r="V2" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W2" s="1">
-        <v>60000001100</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>20080418</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>804</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>120</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>1005</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>1081</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1">
-        <v>3420344621</v>
-      </c>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8">
-        <v>118452</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="1">
-        <v>4210170000005</v>
-      </c>
-      <c r="N3" s="1">
-        <v>20310108</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W3" s="1">
-        <v>60000001100</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>20080621</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>804</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>120</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>1005</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>36</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>1081</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7</v>
-      </c>
-      <c r="H4" s="8">
-        <v>118452</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4210170000006</v>
-      </c>
-      <c r="N4" s="1">
-        <v>20250401</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W4" s="1">
-        <v>60000001100</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>20070331</v>
-      </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>804</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>120</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>1005</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>139</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>1081</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
-      <c r="H5" s="8">
-        <v>118452</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="1">
-        <v>4210170000007</v>
-      </c>
-      <c r="N5" s="1">
-        <v>20320114</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V5" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W5" s="1">
-        <v>60000001100</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>20140131</v>
-      </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>804</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>120</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>1005</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>46</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>1081</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G6" s="1">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1">
-        <v>118455</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="1">
-        <v>4210170000013</v>
-      </c>
-      <c r="N6" s="1">
-        <v>20400101</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U6" s="1">
-        <v>3420344621</v>
-      </c>
-      <c r="V6" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W6" s="1">
-        <v>60000001100</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>20080418</v>
-      </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>804</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>120</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>1017</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>1081</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1">
-        <v>3420344621</v>
-      </c>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G7" s="1">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <v>118455</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4210170000014</v>
-      </c>
-      <c r="N7" s="1">
-        <v>20310108</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W7" s="1">
-        <v>60000001100</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>20080621</v>
-      </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>804</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>120</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>6018</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>36</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>1081</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G8" s="1">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10">
-        <v>118458</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="1">
-        <v>4210170000015</v>
-      </c>
-      <c r="N8" s="2">
-        <v>20301003</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V8" s="2">
-        <v>60000000000</v>
-      </c>
-      <c r="W8" s="2">
-        <v>60000001300</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>19770514</v>
-      </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2">
-        <v>159</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>6001</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>9</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>556</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G9" s="1">
-        <v>17</v>
-      </c>
-      <c r="H9" s="10">
-        <v>118458</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4210170000016</v>
-      </c>
-      <c r="N9" s="2">
-        <v>20301003</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9" s="2">
-        <v>60000000000</v>
-      </c>
-      <c r="W9" s="2">
-        <v>60000001300</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>19770514</v>
-      </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>6001</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>9</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>557</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G10" s="1">
-        <v>18</v>
-      </c>
-      <c r="H10" s="10">
-        <v>118458</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4210170000017</v>
-      </c>
-      <c r="N10" s="2">
-        <v>20301003</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V10" s="2">
-        <v>60000000000</v>
-      </c>
-      <c r="W10" s="2">
-        <v>60000001300</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>19770514</v>
-      </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>1037</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>9</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>557</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G11" s="1">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1">
-        <v>118486</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="1">
-        <v>4210170000018</v>
-      </c>
-      <c r="N11" s="1">
-        <v>20491231</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W11" s="1">
-        <v>60000000400</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>19440807</v>
-      </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1">
-        <v>107</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>6025</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>9</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>1032</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G12" s="1">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1">
-        <v>118487</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="1">
-        <v>4210170000019</v>
-      </c>
-      <c r="N12" s="1">
-        <v>20491231</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W12" s="1">
-        <v>60000001200</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>19490101</v>
-      </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1">
-        <v>106</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>1035</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>9</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>1022</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G13" s="1">
-        <v>21</v>
-      </c>
-      <c r="H13" s="6">
-        <v>118489</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1100</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="1">
-        <v>4210170000020</v>
-      </c>
-      <c r="N13" s="1">
-        <v>20310306</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1">
-        <v>41647000000</v>
-      </c>
-      <c r="W13" s="1">
-        <v>41647479900</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>19710313</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>20010101</v>
-      </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>10</v>
-      </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1">
-        <v>123</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>1150</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>1091</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G14" s="1">
-        <v>22</v>
-      </c>
-      <c r="H14" s="6">
-        <v>118490</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="1">
-        <v>4210170000021</v>
-      </c>
-      <c r="N14" s="1">
-        <v>20251017</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V14" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W14" s="1">
-        <v>60000001200</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>19670305</v>
-      </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1">
-        <v>115</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>1001</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>1061</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>42</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G15" s="1">
-        <v>23</v>
-      </c>
-      <c r="H15" s="6">
-        <v>118491</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="1">
-        <v>4210170000022</v>
-      </c>
-      <c r="N15" s="1">
-        <v>20251017</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V15" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W15" s="1">
-        <v>60000001200</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>19670305</v>
-      </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1">
-        <v>115</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>1001</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>1061</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>42</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G16" s="1">
-        <v>24</v>
-      </c>
-      <c r="H16" s="5">
-        <v>118492</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="1">
-        <v>4210170000023</v>
-      </c>
-      <c r="N16" s="1">
-        <v>20250624</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V16" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W16" s="1">
-        <v>60000001200</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>19730609</v>
-      </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1">
-        <v>112</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>1001</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>1051</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>34</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G17" s="1">
-        <v>25</v>
-      </c>
-      <c r="H17" s="7">
-        <v>118493</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="1">
-        <v>4210170000024</v>
-      </c>
-      <c r="N17" s="1">
-        <v>20230524</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W17" s="1">
-        <v>60000000500</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>19480521</v>
-      </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1">
-        <v>104</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>1001</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>9</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>1011</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G18" s="1">
-        <v>26</v>
-      </c>
-      <c r="H18" s="6">
-        <v>118494</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="1">
-        <v>4210170000025</v>
-      </c>
-      <c r="N18" s="1">
-        <v>20251017</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V18" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W18" s="1">
-        <v>60000001200</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>19670305</v>
-      </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1">
-        <v>115</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>1001</v>
-      </c>
-      <c r="AN18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>1061</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>42</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G19" s="1">
-        <v>27</v>
-      </c>
-      <c r="H19" s="5">
-        <v>118495</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="1">
-        <v>4210170000026</v>
-      </c>
-      <c r="N19" s="1">
-        <v>20261021</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W19" s="1">
-        <v>60000000800</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>19800713</v>
-      </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1">
-        <v>88000316111</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>20400101</v>
-      </c>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1">
-        <v>144</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>6001</v>
-      </c>
-      <c r="AN19" s="1">
-        <v>7</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>464</v>
-      </c>
-      <c r="AR19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS19" s="1">
-        <v>53</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Data/DevopsTC_customerIndividual.xlsx
+++ b/Excel Data/DevopsTC_customerIndividual.xlsx
@@ -17,7 +17,7 @@
     <sheet name="old sheet" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AJ$1:$AJ$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AI$1:$AI$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="231">
   <si>
     <t>SECTOR</t>
   </si>
@@ -721,28 +721,7 @@
     <t>4210136648795</t>
   </si>
   <si>
-    <t>4210136648800</t>
-  </si>
-  <si>
-    <t>4210136648801</t>
-  </si>
-  <si>
-    <t>4210136648802</t>
-  </si>
-  <si>
-    <t>4210136648803</t>
-  </si>
-  <si>
-    <t>4210136648804</t>
-  </si>
-  <si>
-    <t>4210136648806</t>
-  </si>
-  <si>
-    <t>4210136648805</t>
-  </si>
-  <si>
-    <t>4210136648807</t>
+    <t>ANWAR bhai</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,59 +1080,59 @@
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="155.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="155.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1167,165 +1146,162 @@
         <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>217</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>31</v>
@@ -1334,67 +1310,71 @@
         <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>41960000000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F2" s="1">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6">
+        <v>118500</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4210170000124</v>
+      </c>
+      <c r="M2" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>118448</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="1">
-        <v>4210170000000</v>
-      </c>
-      <c r="N2" s="1">
-        <v>20491231</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="S2" s="1" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="U2" s="1">
+        <v>41960000000</v>
       </c>
       <c r="V2" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W2" s="1">
-        <v>60000000400</v>
+        <v>42000000000</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>57</v>
+      <c r="Y2" s="1">
+        <v>19441029</v>
       </c>
       <c r="Z2" s="1">
-        <v>19540218</v>
+        <v>20020607</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -1404,42 +1384,42 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="1"/>
+      <c r="AI2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1">
+        <v>123</v>
+      </c>
       <c r="AL2" s="1">
-        <v>108</v>
+        <v>6004</v>
       </c>
       <c r="AM2" s="1">
-        <v>1005</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>24</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1</v>
       </c>
       <c r="AP2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>1032</v>
-      </c>
-      <c r="AR2" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS2" s="1">
-        <v>0</v>
+      <c r="AR2" s="1">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AU2" s="1"/>
-      <c r="AV2" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
@@ -1447,11 +1427,10 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
         <v>31</v>
@@ -1460,68 +1439,68 @@
         <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="2">
+        <v>60000001100</v>
+      </c>
+      <c r="E3" s="2">
         <v>20800101</v>
       </c>
-      <c r="G3" s="1">
-        <v>11</v>
+      <c r="F3" s="1">
+        <v>49</v>
+      </c>
+      <c r="G3" s="9">
+        <v>118518</v>
       </c>
       <c r="H3" s="1">
-        <v>118452</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1000</v>
+        <v>1006</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>68</v>
+      <c r="L3" s="1">
+        <v>4210170000125</v>
       </c>
       <c r="M3" s="1">
-        <v>4210170000010</v>
-      </c>
-      <c r="N3" s="1">
-        <v>20251017</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="1"/>
+        <v>20491231</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="Q3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="S3" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="U3" s="1">
+        <v>60000000000</v>
       </c>
       <c r="V3" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W3" s="1">
-        <v>60000001200</v>
+        <v>60000001100</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>19670305</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>20110125</v>
+      </c>
+      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -1530,41 +1509,41 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
+      <c r="AI3" s="1">
+        <v>9</v>
+      </c>
       <c r="AJ3" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK3" s="1"/>
+        <v>802</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>121</v>
+      </c>
       <c r="AL3" s="1">
-        <v>115</v>
+        <v>6020</v>
       </c>
       <c r="AM3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>2</v>
       </c>
       <c r="AP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>1061</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>42</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
@@ -1573,9 +1552,8 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39</v>
       </c>
@@ -1585,71 +1563,67 @@
       <c r="C4" s="2">
         <v>24</v>
       </c>
-      <c r="D4" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="E4" s="2">
         <v>20800101</v>
       </c>
-      <c r="G4" s="1">
-        <v>12</v>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6">
+        <v>118498</v>
       </c>
       <c r="H4" s="1">
-        <v>118452</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>139</v>
+        <v>1005</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4210170000126</v>
       </c>
       <c r="M4" s="1">
-        <v>4210170000011</v>
-      </c>
-      <c r="N4" s="1">
-        <v>20271027</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>20260730</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>158</v>
+        <v>64</v>
+      </c>
+      <c r="U4" s="1">
+        <v>60000000000</v>
       </c>
       <c r="V4" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W4" s="1">
-        <v>60000000500</v>
+        <v>60000000200</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>19740510</v>
-      </c>
+      <c r="Y4" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1658,60 +1632,51 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="1"/>
+      <c r="AI4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1">
+        <v>118</v>
+      </c>
       <c r="AL4" s="1">
-        <v>104</v>
+        <v>1001</v>
       </c>
       <c r="AM4" s="1">
-        <v>1150</v>
-      </c>
-      <c r="AN4" s="1">
         <v>9</v>
       </c>
-      <c r="AO4" s="1" t="s">
-        <v>57</v>
+      <c r="AN4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
       </c>
       <c r="AP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>1011</v>
-      </c>
-      <c r="AR4" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AR4" s="1">
         <v>0</v>
       </c>
-      <c r="AT4" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="AS4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
-      <c r="AV4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
-      <c r="BC4" s="1">
-        <v>35850585</v>
-      </c>
-      <c r="BD4" s="1"/>
+      <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>31</v>
@@ -1720,102 +1685,99 @@
         <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="E5" s="2">
         <v>20800101</v>
       </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
       <c r="G5" s="1">
-        <v>30</v>
-      </c>
-      <c r="H5" s="6">
-        <v>118498</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1005</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="1" t="s">
+        <v>118452</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="L5" s="1">
+        <v>4210170000127</v>
+      </c>
       <c r="M5" s="1">
-        <v>4210170000029</v>
-      </c>
-      <c r="N5" s="1">
-        <v>20260730</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>69</v>
+        <v>20251017</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="U5" s="1">
+        <v>60000000000</v>
+      </c>
       <c r="V5" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W5" s="1">
-        <v>60000000200</v>
+        <v>60000001200</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>19651120</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>8</v>
+      <c r="Y5" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>115</v>
       </c>
       <c r="AL5" s="1">
-        <v>119</v>
+        <v>1001</v>
       </c>
       <c r="AM5" s="1">
-        <v>1001</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
       </c>
       <c r="AP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>1072</v>
-      </c>
-      <c r="AR5" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS5" s="1">
-        <v>0</v>
+      <c r="AR5" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2">
         <v>31</v>
@@ -1824,109 +1786,119 @@
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="E6" s="2">
         <v>20800101</v>
       </c>
+      <c r="F6" s="1">
+        <v>43</v>
+      </c>
       <c r="G6" s="1">
-        <v>31</v>
-      </c>
-      <c r="H6" s="6">
-        <v>118499</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>118518</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4210170000128</v>
+      </c>
+      <c r="M6" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U6" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V6" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>801</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>114</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>6012</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="1">
-        <v>4210170000030</v>
-      </c>
-      <c r="N6" s="1">
-        <v>20491231</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W6" s="1">
-        <v>60000001100</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>20110125</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>804</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>121</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>1081</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>39</v>
       </c>
@@ -1937,111 +1909,123 @@
         <v>24</v>
       </c>
       <c r="D7" s="2">
+        <v>60000000700</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>118448</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4210170000129</v>
+      </c>
+      <c r="M7" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V7" s="1">
         <v>60000000400</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20800101</v>
-      </c>
-      <c r="G7" s="1">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6">
-        <v>118500</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1100</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="W7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>802</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1047</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1041</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4210170000031</v>
-      </c>
-      <c r="N7" s="1">
-        <v>20491231</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+    </row>
+    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>76</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V7" s="1">
-        <v>42000000000</v>
-      </c>
-      <c r="W7" s="1">
-        <v>42000000000</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>19441029</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>20020607</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>123</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>6004</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>9</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>1091</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>53</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>31</v>
@@ -2050,99 +2034,119 @@
         <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>60000000400</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="E8" s="2">
         <v>20800101</v>
       </c>
+      <c r="F8" s="1">
+        <v>36</v>
+      </c>
       <c r="G8" s="1">
-        <v>36</v>
+        <v>118518</v>
       </c>
       <c r="H8" s="1">
-        <v>118518</v>
-      </c>
-      <c r="I8" s="1">
         <v>1000</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="L8" s="1">
+        <v>4210170000130</v>
+      </c>
       <c r="M8" s="1">
-        <v>4210170000035</v>
-      </c>
-      <c r="N8" s="1">
         <v>20491231</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="Q8" s="1" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T8" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
+        <v>60000000000</v>
+      </c>
       <c r="V8" s="1">
-        <v>60000000000</v>
-      </c>
-      <c r="W8" s="1">
         <v>60000001200</v>
       </c>
+      <c r="W8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="X8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z8" s="1">
+      <c r="Y8" s="1">
         <v>19490101</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1">
         <v>3</v>
       </c>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1">
+        <v>106</v>
+      </c>
       <c r="AL8" s="1">
-        <v>106</v>
+        <v>1035</v>
       </c>
       <c r="AM8" s="1">
-        <v>1035</v>
-      </c>
-      <c r="AN8" s="1">
         <v>9</v>
       </c>
-      <c r="AO8" s="1" t="s">
-        <v>57</v>
+      <c r="AN8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>6</v>
       </c>
       <c r="AP8" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ8" s="1">
         <v>1022</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AR8" s="1">
         <v>0</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:56" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>31</v>
@@ -2151,100 +2155,6648 @@
         <v>24</v>
       </c>
       <c r="D9" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>118452</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4210170000131</v>
+      </c>
+      <c r="M9" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U9" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V9" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1">
+        <v>35850585</v>
+      </c>
+      <c r="BC9" s="1"/>
+    </row>
+    <row r="10" spans="1:55" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60000000800</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>118448</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4210170000132</v>
+      </c>
+      <c r="M10" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V10" s="1">
         <v>60000000400</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="W10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>801</v>
+      </c>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1">
+        <v>1068</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+    </row>
+    <row r="11" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E11" s="2">
         <v>20800101</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>118448</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4210170000133</v>
+      </c>
+      <c r="M11" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V11" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+    </row>
+    <row r="12" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>118450</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4210170000072</v>
+      </c>
+      <c r="M12" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V12" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+    </row>
+    <row r="13" spans="1:55" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>118451</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4210170000073</v>
+      </c>
+      <c r="M13" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V13" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+    </row>
+    <row r="14" spans="1:55" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>118452</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4210170000074</v>
+      </c>
+      <c r="M14" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V14" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>118452</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4210170000075</v>
+      </c>
+      <c r="M15" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U15" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V15" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F16" s="1">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>118452</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4210170000076</v>
+      </c>
+      <c r="M16" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V16" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>115</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1">
+        <v>118452</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4210170000077</v>
+      </c>
+      <c r="M17" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U17" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V17" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1">
+        <v>104</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1">
+        <v>35850585</v>
+      </c>
+      <c r="BC17" s="1"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F18" s="1">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6">
+        <v>118453</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4210170000078</v>
+      </c>
+      <c r="M18" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V18" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1">
+        <v>115</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F19" s="1">
+        <v>28</v>
+      </c>
+      <c r="G19" s="6">
+        <v>118496</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4210170000079</v>
+      </c>
+      <c r="M19" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U19" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V19" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1">
+        <v>115</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F20" s="1">
+        <v>29</v>
+      </c>
+      <c r="G20" s="7">
+        <v>118497</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4210170000080</v>
+      </c>
+      <c r="M20" s="1">
+        <v>20230630</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V20" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>19930101</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1">
+        <v>104</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F21" s="1">
+        <v>30</v>
+      </c>
+      <c r="G21" s="6">
+        <v>118498</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1005</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4210170000081</v>
+      </c>
+      <c r="M21" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U21" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V21" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1">
+        <v>119</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F22" s="1">
+        <v>31</v>
+      </c>
+      <c r="G22" s="6">
+        <v>118499</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4210170000082</v>
+      </c>
+      <c r="M22" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U22" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V22" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>20110125</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>804</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>121</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F23" s="1">
+        <v>32</v>
+      </c>
+      <c r="G23" s="6">
+        <v>118500</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4210170000083</v>
+      </c>
+      <c r="M23" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U23" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="V23" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1">
+        <v>123</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>53</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>33</v>
+      </c>
+      <c r="G24" s="6">
+        <v>118500</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4210170000084</v>
+      </c>
+      <c r="M24" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="V24" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1">
+        <v>123</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>53</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F25" s="1">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4210170000085</v>
+      </c>
+      <c r="M25" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U25" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V25" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F26" s="1">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4210170000086</v>
+      </c>
+      <c r="M26" s="1">
+        <v>20291220</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U26" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V26" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>19830626</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>1034</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F27" s="1">
+        <v>36</v>
+      </c>
+      <c r="G27" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4210170000087</v>
+      </c>
+      <c r="M27" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V27" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>19490101</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1">
+        <v>106</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>1035</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F28" s="1">
+        <v>37</v>
+      </c>
+      <c r="G28" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4210170000088</v>
+      </c>
+      <c r="M28" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U28" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V28" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1">
+        <v>104</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1">
+        <v>35850585</v>
+      </c>
+      <c r="BC28" s="1"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F29" s="1">
+        <v>38</v>
+      </c>
+      <c r="G29" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4210170000089</v>
+      </c>
+      <c r="M29" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U29" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V29" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>19560101</v>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>6001</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F30" s="1">
+        <v>39</v>
+      </c>
+      <c r="G30" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4210170000090</v>
+      </c>
+      <c r="M30" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U30" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="V30" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1">
+        <v>123</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>53</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F31" s="1">
+        <v>40</v>
+      </c>
+      <c r="G31" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4210170000091</v>
+      </c>
+      <c r="M31" s="1">
+        <v>20270911</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V31" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>19740820</v>
+      </c>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>52</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F32" s="1">
+        <v>41</v>
+      </c>
+      <c r="G32" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4210170000092</v>
+      </c>
+      <c r="M32" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U32" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V32" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>19451012</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>6009</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F33" s="1">
+        <v>42</v>
+      </c>
+      <c r="G33" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4210170000093</v>
+      </c>
+      <c r="M33" s="1">
+        <v>20290205</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U33" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V33" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>19881225</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>6011</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>46</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F34" s="1">
         <v>43</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G34" s="1">
         <v>118518</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H34" s="1">
         <v>1000</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="1">
-        <v>4210170000042</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="L34" s="1">
+        <v>4210170000094</v>
+      </c>
+      <c r="M34" s="1">
         <v>20280419</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="V9" s="1">
+      <c r="U34" s="1">
         <v>60000000000</v>
       </c>
-      <c r="W9" s="1">
+      <c r="V34" s="1">
         <v>60000001200</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="W34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" s="1">
         <v>19690414</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1">
         <v>6</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1">
         <v>114</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AL34" s="1">
         <v>6012</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AM34" s="1">
         <v>8</v>
       </c>
-      <c r="AO9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP9" s="1">
+      <c r="AN34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO34" s="1">
         <v>3</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AP34" s="1">
         <v>1051</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AQ34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AR34" s="1">
         <v>0</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="AS34" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44</v>
+      </c>
+      <c r="G35" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4210170000095</v>
+      </c>
+      <c r="M35" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U35" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V35" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1">
+        <v>115</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E36" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45</v>
+      </c>
+      <c r="G36" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4210170000096</v>
+      </c>
+      <c r="M36" s="1">
+        <v>20260609</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V36" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>19830815</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1">
+        <v>104</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>6014</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1">
+        <v>3022189662</v>
+      </c>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F37" s="1">
+        <v>46</v>
+      </c>
+      <c r="G37" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4210170000097</v>
+      </c>
+      <c r="M37" s="1">
+        <v>20280509</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V37" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>19680101</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>6018</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F38" s="1">
+        <v>47</v>
+      </c>
+      <c r="G38" s="1">
+        <v>118518</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" s="1">
+        <v>4210170000098</v>
+      </c>
+      <c r="M38" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V38" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>19440807</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>6025</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>31</v>
+      </c>
+      <c r="C39" s="2">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E39" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F39" s="1">
+        <v>48</v>
+      </c>
+      <c r="G39" s="9">
+        <v>118518</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L39" s="1">
+        <v>4210170000099</v>
+      </c>
+      <c r="M39" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V39" s="1">
+        <v>60000000600</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>19521208</v>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1">
+        <v>104</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>1017</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>31</v>
+      </c>
+      <c r="C40" s="2">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F40" s="1">
+        <v>49</v>
+      </c>
+      <c r="G40" s="9">
+        <v>118518</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1">
+        <v>4210170000100</v>
+      </c>
+      <c r="M40" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U40" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V40" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>20110125</v>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>804</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>121</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>6020</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F41" s="1">
+        <v>50</v>
+      </c>
+      <c r="G41" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4210170000101</v>
+      </c>
+      <c r="M41" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U41" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V41" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1">
+        <v>115</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F42" s="1">
+        <v>51</v>
+      </c>
+      <c r="G42" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4210170000102</v>
+      </c>
+      <c r="M42" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U42" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V42" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2">
+        <v>31</v>
+      </c>
+      <c r="C43" s="2">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F43" s="1">
+        <v>52</v>
+      </c>
+      <c r="G43" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L43" s="1">
+        <v>4210170000103</v>
+      </c>
+      <c r="M43" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V43" s="1">
+        <v>60000000600</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>19881208</v>
+      </c>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1">
+        <v>104</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>1017</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2">
+        <v>31</v>
+      </c>
+      <c r="C44" s="2">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F44" s="1">
+        <v>53</v>
+      </c>
+      <c r="G44" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4210170000104</v>
+      </c>
+      <c r="M44" s="1">
+        <v>20291220</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U44" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V44" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>19830626</v>
+      </c>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>1034</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC44" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2">
+        <v>31</v>
+      </c>
+      <c r="C45" s="2">
+        <v>24</v>
+      </c>
+      <c r="D45" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E45" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F45" s="1">
+        <v>54</v>
+      </c>
+      <c r="G45" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4210170000105</v>
+      </c>
+      <c r="M45" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V45" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>19490101</v>
+      </c>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1">
+        <v>106</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>1035</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>1022</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F46" s="1">
+        <v>55</v>
+      </c>
+      <c r="G46" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" s="1">
+        <v>4210170000106</v>
+      </c>
+      <c r="M46" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U46" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V46" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1">
+        <v>104</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1">
+        <v>35850585</v>
+      </c>
+      <c r="BC46" s="1"/>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2">
+        <v>31</v>
+      </c>
+      <c r="C47" s="2">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F47" s="1">
+        <v>56</v>
+      </c>
+      <c r="G47" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L47" s="1">
+        <v>4210170000107</v>
+      </c>
+      <c r="M47" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U47" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V47" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>19560101</v>
+      </c>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>6001</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2">
+        <v>31</v>
+      </c>
+      <c r="C48" s="2">
+        <v>24</v>
+      </c>
+      <c r="D48" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E48" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F48" s="1">
+        <v>57</v>
+      </c>
+      <c r="G48" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4210170000108</v>
+      </c>
+      <c r="M48" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U48" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="V48" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1">
+        <v>123</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>53</v>
+      </c>
+      <c r="AS48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>39</v>
+      </c>
+      <c r="B49" s="2">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F49" s="1">
+        <v>58</v>
+      </c>
+      <c r="G49" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" s="1">
+        <v>4210170000109</v>
+      </c>
+      <c r="M49" s="1">
+        <v>20270911</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V49" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>19740820</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>52</v>
+      </c>
+      <c r="AS49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>39</v>
+      </c>
+      <c r="B50" s="2">
+        <v>31</v>
+      </c>
+      <c r="C50" s="2">
+        <v>24</v>
+      </c>
+      <c r="D50" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E50" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F50" s="1">
+        <v>59</v>
+      </c>
+      <c r="G50" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4210170000110</v>
+      </c>
+      <c r="M50" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U50" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V50" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>19451012</v>
+      </c>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>6009</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2">
+        <v>24</v>
+      </c>
+      <c r="D51" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E51" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F51" s="1">
+        <v>60</v>
+      </c>
+      <c r="G51" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" s="1">
+        <v>4210170000111</v>
+      </c>
+      <c r="M51" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U51" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V51" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1">
+        <v>114</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>6012</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>39</v>
+      </c>
+      <c r="B52" s="2">
+        <v>31</v>
+      </c>
+      <c r="C52" s="2">
+        <v>24</v>
+      </c>
+      <c r="D52" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F52" s="1">
+        <v>61</v>
+      </c>
+      <c r="G52" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4210170000112</v>
+      </c>
+      <c r="M52" s="1">
+        <v>20280509</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V52" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>19680101</v>
+      </c>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>6018</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>39</v>
+      </c>
+      <c r="B53" s="2">
+        <v>31</v>
+      </c>
+      <c r="C53" s="2">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F53" s="1">
+        <v>62</v>
+      </c>
+      <c r="G53" s="1">
+        <v>118519</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1">
+        <v>4210170000113</v>
+      </c>
+      <c r="M53" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U53" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V53" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>20110125</v>
+      </c>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>804</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>121</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>6020</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>39</v>
+      </c>
+      <c r="B54" s="2">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F54" s="1">
+        <v>63</v>
+      </c>
+      <c r="G54" s="9">
+        <v>118519</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4210170000114</v>
+      </c>
+      <c r="M54" s="1">
+        <v>20290205</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U54" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V54" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>19881225</v>
+      </c>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>6011</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>46</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>39</v>
+      </c>
+      <c r="B55" s="2">
+        <v>31</v>
+      </c>
+      <c r="C55" s="2">
+        <v>24</v>
+      </c>
+      <c r="D55" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F55" s="1">
+        <v>64</v>
+      </c>
+      <c r="G55" s="9">
+        <v>118519</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L55" s="1">
+        <v>4210170000115</v>
+      </c>
+      <c r="M55" s="1">
+        <v>20260609</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V55" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>19830815</v>
+      </c>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1">
+        <v>104</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>6014</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1">
+        <v>3022189662</v>
+      </c>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>39</v>
+      </c>
+      <c r="B56" s="2">
+        <v>31</v>
+      </c>
+      <c r="C56" s="2">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E56" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F56" s="1">
+        <v>65</v>
+      </c>
+      <c r="G56" s="9">
+        <v>118519</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4210170000116</v>
+      </c>
+      <c r="M56" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V56" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>19440807</v>
+      </c>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>6025</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2">
+        <v>31</v>
+      </c>
+      <c r="C57" s="2">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F57" s="1">
+        <v>66</v>
+      </c>
+      <c r="G57" s="9">
+        <v>118521</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4210170000117</v>
+      </c>
+      <c r="M57" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U57" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="V57" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1">
+        <v>123</v>
+      </c>
+      <c r="AL57" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AQ57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR57" s="1">
+        <v>53</v>
+      </c>
+      <c r="AS57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>39</v>
+      </c>
+      <c r="B58" s="2">
+        <v>31</v>
+      </c>
+      <c r="C58" s="2">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E58" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F58" s="1">
+        <v>67</v>
+      </c>
+      <c r="G58" s="1">
+        <v>118522</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4210170000118</v>
+      </c>
+      <c r="M58" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U58" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="V58" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1">
+        <v>123</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AQ58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR58" s="1">
+        <v>53</v>
+      </c>
+      <c r="AS58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>39</v>
+      </c>
+      <c r="B59" s="2">
+        <v>31</v>
+      </c>
+      <c r="C59" s="2">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F59" s="1">
+        <v>68</v>
+      </c>
+      <c r="G59" s="1">
+        <v>118524</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4210170000119</v>
+      </c>
+      <c r="M59" s="1">
+        <v>20270911</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V59" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>19740820</v>
+      </c>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1">
+        <v>107</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AQ59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR59" s="1">
+        <v>52</v>
+      </c>
+      <c r="AS59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>39</v>
+      </c>
+      <c r="B60" s="2">
+        <v>31</v>
+      </c>
+      <c r="C60" s="2">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E60" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F60" s="1">
+        <v>69</v>
+      </c>
+      <c r="G60" s="1">
+        <v>118525</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" s="1">
+        <v>4210170000120</v>
+      </c>
+      <c r="M60" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U60" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V60" s="1">
+        <v>60000000800</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>19560210</v>
+      </c>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1">
+        <v>144</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>1037</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="1">
+        <v>464</v>
+      </c>
+      <c r="AQ60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>39</v>
+      </c>
+      <c r="B61" s="2">
+        <v>31</v>
+      </c>
+      <c r="C61" s="2">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E61" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F61" s="1">
+        <v>70</v>
+      </c>
+      <c r="G61" s="1">
+        <v>118526</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L61" s="1">
+        <v>4210170000121</v>
+      </c>
+      <c r="M61" s="1">
+        <v>20401026</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V61" s="1">
+        <v>60000000800</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>19820810</v>
+      </c>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1">
+        <v>145</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>6026</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="1">
+        <v>464</v>
+      </c>
+      <c r="AQ61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR61" s="1">
+        <v>29</v>
+      </c>
+      <c r="AS61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>39</v>
+      </c>
+      <c r="B62" s="2">
+        <v>31</v>
+      </c>
+      <c r="C62" s="2">
+        <v>24</v>
+      </c>
+      <c r="D62" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="E62" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="F62" s="1">
+        <v>71</v>
+      </c>
+      <c r="G62" s="1">
+        <v>118527</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L62" s="1">
+        <v>4210170000122</v>
+      </c>
+      <c r="M62" s="1">
+        <v>20401026</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="V62" s="1">
+        <v>60000000800</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>19820810</v>
+      </c>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1">
+        <v>145</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>6026</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>464</v>
+      </c>
+      <c r="AQ62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR62" s="1">
+        <v>29</v>
+      </c>
+      <c r="AS62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="AJ1:AJ9"/>
-  <sortState ref="G2:BD72">
-    <sortCondition ref="H2:H72"/>
+  <sortState ref="F2:BC72">
+    <sortCondition ref="G2:G72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4703,7 +11255,7 @@
   <dimension ref="A1:BD53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BD53"/>
+      <selection activeCell="G13" sqref="A1:BD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/DevopsTC_customerIndividual.xlsx
+++ b/Excel Data/DevopsTC_customerIndividual.xlsx
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1334,7 @@
         <v>74</v>
       </c>
       <c r="L2" s="1">
-        <v>4210170000124</v>
+        <v>4210170000164</v>
       </c>
       <c r="M2" s="1">
         <v>20491231</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <v>4210170000125</v>
+        <v>4210170000165</v>
       </c>
       <c r="M3" s="1">
         <v>20491231</v>
@@ -1474,7 +1474,7 @@
         <v>52</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>54</v>
@@ -1586,7 +1586,7 @@
         <v>68</v>
       </c>
       <c r="L4" s="1">
-        <v>4210170000126</v>
+        <v>4210170000166</v>
       </c>
       <c r="M4" s="1">
         <v>20260730</v>
@@ -1706,7 +1706,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="1">
-        <v>4210170000127</v>
+        <v>4210170000167</v>
       </c>
       <c r="M5" s="1">
         <v>20251017</v>
@@ -1808,7 +1808,7 @@
         <v>68</v>
       </c>
       <c r="L6" s="1">
-        <v>4210170000128</v>
+        <v>4210170000168</v>
       </c>
       <c r="M6" s="1">
         <v>20280419</v>
@@ -1931,7 +1931,7 @@
         <v>68</v>
       </c>
       <c r="L7" s="1">
-        <v>4210170000129</v>
+        <v>4210170000169</v>
       </c>
       <c r="M7" s="1">
         <v>20491231</v>
@@ -2056,7 +2056,7 @@
         <v>68</v>
       </c>
       <c r="L8" s="1">
-        <v>4210170000130</v>
+        <v>4210170000170</v>
       </c>
       <c r="M8" s="1">
         <v>20491231</v>
@@ -2177,7 +2177,7 @@
         <v>139</v>
       </c>
       <c r="L9" s="1">
-        <v>4210170000131</v>
+        <v>4210170000171</v>
       </c>
       <c r="M9" s="1">
         <v>20271027</v>
@@ -2306,7 +2306,7 @@
         <v>68</v>
       </c>
       <c r="L10" s="1">
-        <v>4210170000132</v>
+        <v>4210170000172</v>
       </c>
       <c r="M10" s="1">
         <v>20491231</v>
@@ -2429,7 +2429,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="1">
-        <v>4210170000133</v>
+        <v>4210170000173</v>
       </c>
       <c r="M11" s="1">
         <v>20491231</v>

--- a/Excel Data/DevopsTC_customerIndividual.xlsx
+++ b/Excel Data/DevopsTC_customerIndividual.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="351">
   <si>
     <t>SECTOR</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>Customer_ID</t>
-  </si>
-  <si>
-    <t>17704491</t>
   </si>
   <si>
     <t>17704492</t>
@@ -1676,8 +1673,8 @@
       <c r="C2" s="2">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>232</v>
+      <c r="D2" s="2">
+        <v>17704491</v>
       </c>
       <c r="E2" s="2">
         <v>41960000000</v>
@@ -1809,7 +1806,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="2">
         <v>60000001100</v>
@@ -1937,7 +1934,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" s="1">
         <v>60000000200</v>
@@ -2061,7 +2058,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2">
         <v>60000000600</v>
@@ -2165,7 +2162,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="2">
         <v>60000001200</v>
@@ -2291,7 +2288,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2">
         <v>60000000700</v>
@@ -2419,7 +2416,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8" s="2">
         <v>60000001200</v>
@@ -2543,7 +2540,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" s="2">
         <v>60000000600</v>
@@ -2675,7 +2672,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" s="2">
         <v>60000000800</v>
@@ -2801,7 +2798,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E11" s="2">
         <v>60000000400</v>
@@ -2927,7 +2924,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E12" s="2">
         <v>60000000400</v>
@@ -3053,7 +3050,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E13" s="2">
         <v>60000000400</v>
@@ -3179,7 +3176,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E14" s="2">
         <v>60000000400</v>
@@ -3283,7 +3280,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E15" s="2">
         <v>60000000400</v>
@@ -3387,7 +3384,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" s="2">
         <v>60000000400</v>
@@ -3491,7 +3488,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="2">
         <v>60000000400</v>
@@ -3625,7 +3622,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E18" s="2">
         <v>60000000400</v>
@@ -3753,7 +3750,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E19" s="2">
         <v>60000000400</v>
@@ -3879,7 +3876,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E20" s="2">
         <v>60000000400</v>
@@ -4007,7 +4004,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" s="2">
         <v>60000000400</v>
@@ -4133,7 +4130,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E22" s="2">
         <v>60000000400</v>
@@ -4265,7 +4262,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E23" s="2">
         <v>60000000400</v>
@@ -4397,7 +4394,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24" s="2">
         <v>60000000400</v>
@@ -4529,7 +4526,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2">
         <v>60000000400</v>
@@ -4655,7 +4652,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E26" s="2">
         <v>60000000400</v>
@@ -4791,7 +4788,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2">
         <v>60000000400</v>
@@ -4915,7 +4912,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E28" s="2">
         <v>60000000400</v>
@@ -5049,7 +5046,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2">
         <v>60000000400</v>
@@ -5175,7 +5172,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E30" s="2">
         <v>60000000400</v>
@@ -5305,7 +5302,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E31" s="2">
         <v>60000000400</v>
@@ -5427,7 +5424,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E32" s="2">
         <v>60000000400</v>
@@ -5553,7 +5550,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E33" s="2">
         <v>60000000400</v>
@@ -5679,7 +5676,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E34" s="2">
         <v>60000000400</v>
@@ -5803,7 +5800,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E35" s="2">
         <v>60000000400</v>
@@ -5929,7 +5926,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E36" s="2">
         <v>60000000400</v>
@@ -6061,7 +6058,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E37" s="2">
         <v>60000000400</v>
@@ -6187,7 +6184,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" s="2">
         <v>60000000400</v>
@@ -6309,7 +6306,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E39" s="2">
         <v>60000000400</v>
@@ -6435,7 +6432,7 @@
         <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E40" s="2">
         <v>60000000400</v>
@@ -6565,7 +6562,7 @@
         <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E41" s="2">
         <v>60000000400</v>
@@ -6691,7 +6688,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E42" s="2">
         <v>60000000400</v>
@@ -6817,7 +6814,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E43" s="2">
         <v>60000000400</v>
@@ -6943,7 +6940,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E44" s="2">
         <v>60000000400</v>
@@ -7079,7 +7076,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E45" s="2">
         <v>60000000400</v>
@@ -7203,7 +7200,7 @@
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E46" s="2">
         <v>60000000400</v>
@@ -7337,7 +7334,7 @@
         <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E47" s="2">
         <v>60000000400</v>
@@ -7463,7 +7460,7 @@
         <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E48" s="2">
         <v>60000000400</v>
@@ -7593,7 +7590,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E49" s="2">
         <v>60000000400</v>
@@ -7715,7 +7712,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E50" s="2">
         <v>60000000400</v>
@@ -7841,7 +7838,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E51" s="2">
         <v>60000000400</v>
@@ -7965,7 +7962,7 @@
         <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E52" s="2">
         <v>60000000400</v>
@@ -8091,7 +8088,7 @@
         <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E53" s="2">
         <v>60000000400</v>
@@ -8221,7 +8218,7 @@
         <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E54" s="2">
         <v>60000000400</v>
@@ -8347,7 +8344,7 @@
         <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E55" s="2">
         <v>60000000400</v>
@@ -8479,7 +8476,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E56" s="2">
         <v>60000000400</v>
@@ -8601,7 +8598,7 @@
         <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E57" s="2">
         <v>60000000400</v>
@@ -8731,7 +8728,7 @@
         <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E58" s="2">
         <v>60000000400</v>
@@ -8861,7 +8858,7 @@
         <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E59" s="2">
         <v>60000000400</v>
@@ -8983,7 +8980,7 @@
         <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E60" s="2">
         <v>60000000400</v>
@@ -9107,7 +9104,7 @@
         <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E61" s="2">
         <v>60000000400</v>
@@ -9231,7 +9228,7 @@
         <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E62" s="2">
         <v>60000000400</v>
@@ -9346,297 +9343,297 @@
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D63" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D64" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/DevopsTC_customerIndividual.xlsx
+++ b/Excel Data/DevopsTC_customerIndividual.xlsx
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:BD121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M2" sqref="M2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,7 +1701,7 @@
         <v>74</v>
       </c>
       <c r="M2" s="1">
-        <v>4210170000164</v>
+        <v>4210170000175</v>
       </c>
       <c r="N2" s="1">
         <v>20491231</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
-        <v>4210170000165</v>
+        <v>4210170000176</v>
       </c>
       <c r="N3" s="1">
         <v>20491231</v>
@@ -1959,7 +1959,7 @@
         <v>68</v>
       </c>
       <c r="M4" s="1">
-        <v>4210170000166</v>
+        <v>4210170000177</v>
       </c>
       <c r="N4" s="1">
         <v>20260730</v>
@@ -2082,7 +2082,7 @@
         <v>68</v>
       </c>
       <c r="M5" s="1">
-        <v>4210170000167</v>
+        <v>4210170000178</v>
       </c>
       <c r="N5" s="1">
         <v>20251017</v>
@@ -2187,7 +2187,7 @@
         <v>68</v>
       </c>
       <c r="M6" s="1">
-        <v>4210170000168</v>
+        <v>4210170000179</v>
       </c>
       <c r="N6" s="1">
         <v>20280419</v>
@@ -2313,7 +2313,7 @@
         <v>68</v>
       </c>
       <c r="M7" s="1">
-        <v>4210170000169</v>
+        <v>4210170000180</v>
       </c>
       <c r="N7" s="1">
         <v>20491231</v>
@@ -2441,7 +2441,7 @@
         <v>68</v>
       </c>
       <c r="M8" s="1">
-        <v>4210170000170</v>
+        <v>4210170000181</v>
       </c>
       <c r="N8" s="1">
         <v>20491231</v>
@@ -2565,7 +2565,7 @@
         <v>139</v>
       </c>
       <c r="M9" s="1">
-        <v>4210170000171</v>
+        <v>4210170000182</v>
       </c>
       <c r="N9" s="1">
         <v>20271027</v>
@@ -2697,7 +2697,7 @@
         <v>68</v>
       </c>
       <c r="M10" s="1">
-        <v>4210170000172</v>
+        <v>4210170000183</v>
       </c>
       <c r="N10" s="1">
         <v>20491231</v>
@@ -2823,7 +2823,7 @@
         <v>68</v>
       </c>
       <c r="M11" s="1">
-        <v>4210170000173</v>
+        <v>4210170000184</v>
       </c>
       <c r="N11" s="1">
         <v>20491231</v>
@@ -2949,7 +2949,7 @@
         <v>68</v>
       </c>
       <c r="M12" s="1">
-        <v>4210170000072</v>
+        <v>4210170000185</v>
       </c>
       <c r="N12" s="1">
         <v>20491231</v>

--- a/Excel Data/DevopsTC_customerIndividual.xlsx
+++ b/Excel Data/DevopsTC_customerIndividual.xlsx
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:BD121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M12"/>
+      <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,7 +1701,7 @@
         <v>74</v>
       </c>
       <c r="M2" s="1">
-        <v>4210170000175</v>
+        <v>4210170000186</v>
       </c>
       <c r="N2" s="1">
         <v>20491231</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
-        <v>4210170000176</v>
+        <v>4210170000187</v>
       </c>
       <c r="N3" s="1">
         <v>20491231</v>
@@ -1959,7 +1959,7 @@
         <v>68</v>
       </c>
       <c r="M4" s="1">
-        <v>4210170000177</v>
+        <v>4210170000188</v>
       </c>
       <c r="N4" s="1">
         <v>20260730</v>
@@ -2082,7 +2082,7 @@
         <v>68</v>
       </c>
       <c r="M5" s="1">
-        <v>4210170000178</v>
+        <v>4210170000189</v>
       </c>
       <c r="N5" s="1">
         <v>20251017</v>
@@ -2187,7 +2187,7 @@
         <v>68</v>
       </c>
       <c r="M6" s="1">
-        <v>4210170000179</v>
+        <v>4210170000190</v>
       </c>
       <c r="N6" s="1">
         <v>20280419</v>
@@ -2313,7 +2313,7 @@
         <v>68</v>
       </c>
       <c r="M7" s="1">
-        <v>4210170000180</v>
+        <v>4210170000191</v>
       </c>
       <c r="N7" s="1">
         <v>20491231</v>
@@ -2441,7 +2441,7 @@
         <v>68</v>
       </c>
       <c r="M8" s="1">
-        <v>4210170000181</v>
+        <v>4210170000192</v>
       </c>
       <c r="N8" s="1">
         <v>20491231</v>
@@ -2565,7 +2565,7 @@
         <v>139</v>
       </c>
       <c r="M9" s="1">
-        <v>4210170000182</v>
+        <v>4210170000193</v>
       </c>
       <c r="N9" s="1">
         <v>20271027</v>
@@ -2697,7 +2697,7 @@
         <v>68</v>
       </c>
       <c r="M10" s="1">
-        <v>4210170000183</v>
+        <v>4210170000194</v>
       </c>
       <c r="N10" s="1">
         <v>20491231</v>
@@ -2823,7 +2823,7 @@
         <v>68</v>
       </c>
       <c r="M11" s="1">
-        <v>4210170000184</v>
+        <v>4210170000195</v>
       </c>
       <c r="N11" s="1">
         <v>20491231</v>
@@ -2949,7 +2949,7 @@
         <v>68</v>
       </c>
       <c r="M12" s="1">
-        <v>4210170000185</v>
+        <v>4210170000196</v>
       </c>
       <c r="N12" s="1">
         <v>20491231</v>
@@ -3075,7 +3075,7 @@
         <v>68</v>
       </c>
       <c r="M13" s="1">
-        <v>4210170000073</v>
+        <v>4210170000197</v>
       </c>
       <c r="N13" s="1">
         <v>20491231</v>
@@ -3200,7 +3200,7 @@
         <v>68</v>
       </c>
       <c r="M14" s="1">
-        <v>4210170000074</v>
+        <v>4210170000198</v>
       </c>
       <c r="N14" s="1">
         <v>20491231</v>

--- a/Excel Data/DevopsTC_customerIndividual.xlsx
+++ b/Excel Data/DevopsTC_customerIndividual.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="old sheet" sheetId="4" r:id="rId3"/>
+    <sheet name="Data for UAT2" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="old sheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AJ$1:$AJ$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$AJ$1:$AJ$130</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="351">
   <si>
     <t>SECTOR</t>
   </si>
@@ -1429,10 +1430,1514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AX15" sqref="AX15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>17704491</v>
+      </c>
+      <c r="E2" s="2">
+        <v>41960000000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G2" s="1">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6">
+        <v>118500</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="1">
+        <v>41960000000</v>
+      </c>
+      <c r="W2" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>53</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="2">
+        <v>60000001100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G3" s="1">
+        <v>49</v>
+      </c>
+      <c r="H3" s="9">
+        <v>118518</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W3" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>20110125</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>802</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>121</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>6020</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
+        <v>118498</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W4" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1">
+        <v>118</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W5" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N6" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V6" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>6012</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="2">
+        <v>60000000700</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>118448</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N7" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W7" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>802</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>108</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1047</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1041</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G8" s="1">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N8" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W8" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>19490101</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1">
+        <v>106</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1035</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1022</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V9" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W9" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="2">
+        <v>60000000800</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>118448</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N10" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W10" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1">
+        <v>1068</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>24</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>118448</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W11" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD102"/>
+    <sheetView topLeftCell="AV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22985,7 +24490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD19"/>
   <sheetViews>
@@ -25432,7 +26937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD53"/>
   <sheetViews>

--- a/Excel Data/DevopsTC_customerIndividual.xlsx
+++ b/Excel Data/DevopsTC_customerIndividual.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="248">
   <si>
     <t>SECTOR</t>
   </si>
@@ -765,6 +765,12 @@
   </si>
   <si>
     <t xml:space="preserve">Testing Name </t>
+  </si>
+  <si>
+    <t>kids account data</t>
+  </si>
+  <si>
+    <t>other data:</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE10"/>
+  <dimension ref="A1:BE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
         <v>31</v>
@@ -1495,35 +1501,35 @@
         <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>17704492</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60000001100</v>
+        <v>17704511</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60000000200</v>
       </c>
       <c r="F3" s="2">
         <v>20800101</v>
       </c>
       <c r="G3" s="1">
-        <v>49</v>
-      </c>
-      <c r="H3" s="8">
-        <v>118518</v>
+        <v>30</v>
+      </c>
+      <c r="H3" s="5">
+        <v>118498</v>
       </c>
       <c r="I3" s="1">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="M3" s="1">
         <v>421017000</v>
       </c>
       <c r="N3" s="1">
-        <v>20491231</v>
+        <v>20260730</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>244</v>
@@ -1532,32 +1538,30 @@
       <c r="Q3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="V3" s="1">
         <v>60000000000</v>
       </c>
       <c r="W3" s="1">
-        <v>60000001100</v>
+        <v>60000000200</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="1">
-        <v>20110125</v>
+        <v>19651120</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -1569,19 +1573,17 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1">
-        <v>9</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>802</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AK3" s="1"/>
       <c r="AL3" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AM3" s="1">
-        <v>6020</v>
+        <v>1001</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO3" s="1">
         <v>9</v>
@@ -1590,10 +1592,10 @@
         <v>57</v>
       </c>
       <c r="AQ3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR3" s="1">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>58</v>
@@ -1616,7 +1618,7 @@
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2">
         <v>31</v>
@@ -1625,25 +1627,25 @@
         <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>17704511</v>
-      </c>
-      <c r="E4" s="1">
-        <v>60000000200</v>
+        <v>17704524</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60000000600</v>
       </c>
       <c r="F4" s="2">
         <v>20800101</v>
       </c>
       <c r="G4" s="1">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5">
-        <v>118498</v>
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>118452</v>
       </c>
       <c r="I4" s="1">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
@@ -1653,7 +1655,7 @@
         <v>421017000</v>
       </c>
       <c r="N4" s="1">
-        <v>20260730</v>
+        <v>20251017</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>244</v>
@@ -1664,10 +1666,10 @@
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>64</v>
@@ -1676,7 +1678,7 @@
         <v>60000000000</v>
       </c>
       <c r="W4" s="1">
-        <v>60000000200</v>
+        <v>60000001200</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>57</v>
@@ -1685,7 +1687,7 @@
         <v>57</v>
       </c>
       <c r="Z4" s="1">
-        <v>19651120</v>
+        <v>19670305</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -1697,11 +1699,11 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AM4" s="1">
         <v>1001</v>
@@ -1710,7 +1712,7 @@
         <v>237</v>
       </c>
       <c r="AO4" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>57</v>
@@ -1719,18 +1721,20 @@
         <v>1</v>
       </c>
       <c r="AR4" s="1">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AT4" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV4" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
@@ -1742,7 +1746,7 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2">
         <v>31</v>
@@ -1751,19 +1755,19 @@
         <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>17704524</v>
+        <v>17704525</v>
       </c>
       <c r="E5" s="2">
-        <v>60000000600</v>
+        <v>60000001200</v>
       </c>
       <c r="F5" s="2">
         <v>20800101</v>
       </c>
       <c r="G5" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1">
-        <v>118452</v>
+        <v>118518</v>
       </c>
       <c r="I5" s="1">
         <v>1000</v>
@@ -1779,7 +1783,7 @@
         <v>421017000</v>
       </c>
       <c r="N5" s="1">
-        <v>20251017</v>
+        <v>20280419</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>244</v>
@@ -1790,13 +1794,13 @@
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="V5" s="1">
         <v>60000000000</v>
@@ -1811,7 +1815,7 @@
         <v>57</v>
       </c>
       <c r="Z5" s="1">
-        <v>19670305</v>
+        <v>19690414</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -1823,42 +1827,42 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK5" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>801</v>
+      </c>
       <c r="AL5" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AM5" s="1">
-        <v>1001</v>
+        <v>6005</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AO5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR5" s="1">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AT5" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
@@ -1870,7 +1874,7 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
         <v>31</v>
@@ -1879,19 +1883,19 @@
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>17704525</v>
+        <v>17704540</v>
       </c>
       <c r="E6" s="2">
-        <v>60000001200</v>
+        <v>60000000400</v>
       </c>
       <c r="F6" s="2">
         <v>20800101</v>
       </c>
       <c r="G6" s="1">
-        <v>43</v>
-      </c>
-      <c r="H6" s="1">
-        <v>118518</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>118448</v>
       </c>
       <c r="I6" s="1">
         <v>1000</v>
@@ -1907,7 +1911,7 @@
         <v>421017000</v>
       </c>
       <c r="N6" s="1">
-        <v>20280419</v>
+        <v>20491231</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>244</v>
@@ -1918,19 +1922,19 @@
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="V6" s="1">
         <v>60000000000</v>
       </c>
       <c r="W6" s="1">
-        <v>60000001200</v>
+        <v>60000000400</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>57</v>
@@ -1939,7 +1943,7 @@
         <v>57</v>
       </c>
       <c r="Z6" s="1">
-        <v>19690414</v>
+        <v>19540218</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -1951,31 +1955,29 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>801</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AK6" s="1"/>
       <c r="AL6" s="1">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AM6" s="1">
-        <v>6005</v>
+        <v>1005</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO6" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AQ6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="1">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>58</v>
@@ -1987,7 +1989,9 @@
         <v>49</v>
       </c>
       <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AW6" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
@@ -1996,9 +2000,9 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>31</v>
@@ -2007,19 +2011,19 @@
         <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>17704526</v>
+        <v>17704531</v>
       </c>
       <c r="E7" s="2">
-        <v>60000000700</v>
+        <v>60000000600</v>
       </c>
       <c r="F7" s="2">
         <v>20800101</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>118448</v>
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>118452</v>
       </c>
       <c r="I7" s="1">
         <v>1000</v>
@@ -2029,13 +2033,13 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="M7" s="1">
         <v>421017000</v>
       </c>
       <c r="N7" s="1">
-        <v>20491231</v>
+        <v>20271027</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>244</v>
@@ -2044,30 +2048,32 @@
       <c r="Q7" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="S7" s="1" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="V7" s="1">
         <v>60000000000</v>
       </c>
       <c r="W7" s="1">
-        <v>60000000400</v>
+        <v>60000000500</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="Z7" s="1">
-        <v>19540218</v>
+        <v>19740510</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -2079,22 +2085,18 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>802</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>108</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
       <c r="AM7" s="1">
-        <v>1047</v>
+        <v>1150</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AO7" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>57</v>
@@ -2103,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="AR7" s="1">
-        <v>1041</v>
+        <v>1011</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>58</v>
@@ -2116,19 +2118,25 @@
       </c>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
+      <c r="BD7" s="1">
+        <v>35850585</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>31</v>
@@ -2137,60 +2145,62 @@
         <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>17704531</v>
+        <v>17704491</v>
       </c>
       <c r="E8" s="2">
-        <v>60000000600</v>
+        <v>41960000000</v>
       </c>
       <c r="F8" s="2">
         <v>20800101</v>
       </c>
       <c r="G8" s="1">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1">
-        <v>118452</v>
+        <v>32</v>
+      </c>
+      <c r="H8" s="5">
+        <v>118500</v>
       </c>
       <c r="I8" s="1">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L8" s="1" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="M8" s="1">
         <v>421017000</v>
       </c>
       <c r="N8" s="1">
-        <v>20271027</v>
+        <v>20491231</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="Q8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="V8" s="1">
-        <v>60000000000</v>
+        <v>41960000000</v>
       </c>
       <c r="W8" s="1">
-        <v>60000000500</v>
+        <v>42000000000</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>57</v>
@@ -2199,9 +2209,11 @@
         <v>57</v>
       </c>
       <c r="Z8" s="1">
-        <v>19740510</v>
-      </c>
-      <c r="AA8" s="1"/>
+        <v>19441029</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>20020607</v>
+      </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -2211,15 +2223,17 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
+      <c r="AL8" s="1">
+        <v>123</v>
+      </c>
       <c r="AM8" s="1">
-        <v>1150</v>
+        <v>6004</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AO8" s="1">
         <v>9</v>
@@ -2231,38 +2245,32 @@
         <v>1</v>
       </c>
       <c r="AR8" s="1">
-        <v>1011</v>
+        <v>1091</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AT8" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
-      <c r="BD8" s="1">
-        <v>35850585</v>
-      </c>
+      <c r="BD8" s="1"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>31</v>
@@ -2271,25 +2279,25 @@
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>17704532</v>
-      </c>
-      <c r="E9" s="2">
-        <v>60000000800</v>
+        <v>17704511</v>
+      </c>
+      <c r="E9" s="1">
+        <v>60000000200</v>
       </c>
       <c r="F9" s="2">
         <v>20800101</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>118448</v>
+        <v>30</v>
+      </c>
+      <c r="H9" s="5">
+        <v>118498</v>
       </c>
       <c r="I9" s="1">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
@@ -2299,7 +2307,7 @@
         <v>421017000</v>
       </c>
       <c r="N9" s="1">
-        <v>20491231</v>
+        <v>20260730</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>244</v>
@@ -2310,10 +2318,10 @@
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>64</v>
@@ -2322,7 +2330,7 @@
         <v>60000000000</v>
       </c>
       <c r="W9" s="1">
-        <v>60000000400</v>
+        <v>60000000200</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>57</v>
@@ -2331,7 +2339,7 @@
         <v>57</v>
       </c>
       <c r="Z9" s="1">
-        <v>19540218</v>
+        <v>19651120</v>
       </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -2343,20 +2351,20 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>801</v>
-      </c>
-      <c r="AL9" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1">
+        <v>118</v>
+      </c>
       <c r="AM9" s="1">
-        <v>1068</v>
+        <v>1001</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AO9" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>57</v>
@@ -2365,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="AR9" s="1">
-        <v>1002</v>
+        <v>1072</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>58</v>
@@ -2374,12 +2382,10 @@
         <v>0</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AV9" s="1"/>
-      <c r="AW9" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
@@ -2388,9 +2394,9 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2">
         <v>31</v>
@@ -2399,19 +2405,19 @@
         <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>17704540</v>
+        <v>17704524</v>
       </c>
       <c r="E10" s="2">
-        <v>60000000400</v>
+        <v>60000000600</v>
       </c>
       <c r="F10" s="2">
         <v>20800101</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>118448</v>
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>118452</v>
       </c>
       <c r="I10" s="1">
         <v>1000</v>
@@ -2427,7 +2433,7 @@
         <v>421017000</v>
       </c>
       <c r="N10" s="1">
-        <v>20491231</v>
+        <v>20251017</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>244</v>
@@ -2438,10 +2444,10 @@
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>64</v>
@@ -2450,7 +2456,7 @@
         <v>60000000000</v>
       </c>
       <c r="W10" s="1">
-        <v>60000000400</v>
+        <v>60000001200</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>57</v>
@@ -2459,7 +2465,7 @@
         <v>57</v>
       </c>
       <c r="Z10" s="1">
-        <v>19540218</v>
+        <v>19670305</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -2471,20 +2477,20 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AM10" s="1">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AO10" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>57</v>
@@ -2493,21 +2499,21 @@
         <v>1</v>
       </c>
       <c r="AR10" s="1">
-        <v>1032</v>
+        <v>1061</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AT10" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
@@ -2516,6 +2522,5842 @@
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
     </row>
+    <row r="11" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>17704525</v>
+      </c>
+      <c r="E11" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43</v>
+      </c>
+      <c r="H11" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V11" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W11" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+    </row>
+    <row r="12" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17704540</v>
+      </c>
+      <c r="E12" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N12" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W12" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+    </row>
+    <row r="13" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E13" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N13" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V13" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W13" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>17704491</v>
+      </c>
+      <c r="E14" s="2">
+        <v>41960000000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G14" s="1">
+        <v>32</v>
+      </c>
+      <c r="H14" s="5">
+        <v>118500</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N14" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V14" s="1">
+        <v>41960000000</v>
+      </c>
+      <c r="W14" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>53</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+    </row>
+    <row r="15" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17704511</v>
+      </c>
+      <c r="E15" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G15" s="1">
+        <v>30</v>
+      </c>
+      <c r="H15" s="5">
+        <v>118498</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N15" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W15" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1">
+        <v>118</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+    </row>
+    <row r="16" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17704524</v>
+      </c>
+      <c r="E16" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N16" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W16" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+    </row>
+    <row r="17" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>80</v>
+      </c>
+      <c r="B17" s="2">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17704525</v>
+      </c>
+      <c r="E17" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N17" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V17" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W17" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+    </row>
+    <row r="18" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17704540</v>
+      </c>
+      <c r="E18" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N18" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W18" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+    </row>
+    <row r="19" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E19" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G19" s="1">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N19" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V19" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W19" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17704491</v>
+      </c>
+      <c r="E20" s="2">
+        <v>41960000000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G20" s="1">
+        <v>32</v>
+      </c>
+      <c r="H20" s="5">
+        <v>118500</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N20" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V20" s="1">
+        <v>41960000000</v>
+      </c>
+      <c r="W20" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>53</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+    </row>
+    <row r="21" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17704511</v>
+      </c>
+      <c r="E21" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G21" s="1">
+        <v>30</v>
+      </c>
+      <c r="H21" s="5">
+        <v>118498</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N21" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W21" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1">
+        <v>118</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+    </row>
+    <row r="22" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>17704524</v>
+      </c>
+      <c r="E22" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G22" s="1">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N22" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W22" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+    </row>
+    <row r="23" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>17704525</v>
+      </c>
+      <c r="E23" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G23" s="1">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N23" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V23" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W23" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+    </row>
+    <row r="24" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>17704540</v>
+      </c>
+      <c r="E24" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F24" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N24" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W24" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+    </row>
+    <row r="25" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E25" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F25" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G25" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N25" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V25" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W25" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>17704491</v>
+      </c>
+      <c r="E26" s="2">
+        <v>41960000000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G26" s="1">
+        <v>32</v>
+      </c>
+      <c r="H26" s="5">
+        <v>118500</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N26" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V26" s="1">
+        <v>41960000000</v>
+      </c>
+      <c r="W26" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>53</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+    </row>
+    <row r="27" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <v>17704511</v>
+      </c>
+      <c r="E27" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="F27" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G27" s="1">
+        <v>30</v>
+      </c>
+      <c r="H27" s="5">
+        <v>118498</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N27" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V27" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W27" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1">
+        <v>118</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+    </row>
+    <row r="28" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>17704524</v>
+      </c>
+      <c r="E28" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F28" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G28" s="1">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N28" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V28" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W28" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+    </row>
+    <row r="29" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
+        <v>17704525</v>
+      </c>
+      <c r="E29" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F29" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G29" s="1">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N29" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V29" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W29" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+    </row>
+    <row r="30" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2">
+        <v>17704540</v>
+      </c>
+      <c r="E30" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F30" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N30" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V30" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W30" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+    </row>
+    <row r="31" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E31" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F31" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G31" s="1">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N31" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V31" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W31" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2">
+        <v>17704491</v>
+      </c>
+      <c r="E32" s="2">
+        <v>41960000000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G32" s="1">
+        <v>32</v>
+      </c>
+      <c r="H32" s="5">
+        <v>118500</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N32" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V32" s="1">
+        <v>41960000000</v>
+      </c>
+      <c r="W32" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>53</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+    </row>
+    <row r="33" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2">
+        <v>17704511</v>
+      </c>
+      <c r="E33" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="F33" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G33" s="1">
+        <v>30</v>
+      </c>
+      <c r="H33" s="5">
+        <v>118498</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N33" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V33" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W33" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1">
+        <v>118</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+    </row>
+    <row r="34" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2">
+        <v>17704524</v>
+      </c>
+      <c r="E34" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F34" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G34" s="1">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N34" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V34" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W34" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+    </row>
+    <row r="35" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2">
+        <v>17704525</v>
+      </c>
+      <c r="E35" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G35" s="1">
+        <v>43</v>
+      </c>
+      <c r="H35" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N35" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V35" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W35" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+    </row>
+    <row r="36" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2">
+        <v>17704540</v>
+      </c>
+      <c r="E36" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F36" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N36" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V36" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W36" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+    </row>
+    <row r="37" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E37" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F37" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G37" s="1">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M37" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N37" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V37" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W37" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2">
+        <v>17704491</v>
+      </c>
+      <c r="E38" s="2">
+        <v>41960000000</v>
+      </c>
+      <c r="F38" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G38" s="1">
+        <v>32</v>
+      </c>
+      <c r="H38" s="5">
+        <v>118500</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N38" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V38" s="1">
+        <v>41960000000</v>
+      </c>
+      <c r="W38" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>53</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+    </row>
+    <row r="39" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>31</v>
+      </c>
+      <c r="C39" s="2">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2">
+        <v>17704511</v>
+      </c>
+      <c r="E39" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="F39" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G39" s="1">
+        <v>30</v>
+      </c>
+      <c r="H39" s="5">
+        <v>118498</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N39" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V39" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W39" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1">
+        <v>118</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AS39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+    </row>
+    <row r="40" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2">
+        <v>31</v>
+      </c>
+      <c r="C40" s="2">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2">
+        <v>17704524</v>
+      </c>
+      <c r="E40" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F40" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G40" s="1">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N40" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V40" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W40" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN40" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AS40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+    </row>
+    <row r="41" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2">
+        <v>17704525</v>
+      </c>
+      <c r="E41" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F41" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G41" s="1">
+        <v>43</v>
+      </c>
+      <c r="H41" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N41" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V41" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W41" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AN41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AS41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+    </row>
+    <row r="42" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2">
+        <v>17704540</v>
+      </c>
+      <c r="E42" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F42" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M42" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N42" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V42" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W42" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AS42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+    </row>
+    <row r="43" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2">
+        <v>31</v>
+      </c>
+      <c r="C43" s="2">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E43" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F43" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G43" s="1">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M43" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N43" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V43" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W43" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
+        <v>31</v>
+      </c>
+      <c r="C44" s="2">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2">
+        <v>17704491</v>
+      </c>
+      <c r="E44" s="2">
+        <v>41960000000</v>
+      </c>
+      <c r="F44" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G44" s="1">
+        <v>32</v>
+      </c>
+      <c r="H44" s="5">
+        <v>118500</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N44" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V44" s="1">
+        <v>41960000000</v>
+      </c>
+      <c r="W44" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>53</v>
+      </c>
+      <c r="AU44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+    </row>
+    <row r="45" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2">
+        <v>31</v>
+      </c>
+      <c r="C45" s="2">
+        <v>24</v>
+      </c>
+      <c r="D45" s="2">
+        <v>17704511</v>
+      </c>
+      <c r="E45" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="F45" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G45" s="1">
+        <v>30</v>
+      </c>
+      <c r="H45" s="5">
+        <v>118498</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N45" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V45" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W45" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1">
+        <v>118</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AS45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+    </row>
+    <row r="46" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2">
+        <v>17704524</v>
+      </c>
+      <c r="E46" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F46" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G46" s="1">
+        <v>11</v>
+      </c>
+      <c r="H46" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M46" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N46" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V46" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W46" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AS46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+    </row>
+    <row r="47" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>80</v>
+      </c>
+      <c r="B47" s="2">
+        <v>31</v>
+      </c>
+      <c r="C47" s="2">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2">
+        <v>17704525</v>
+      </c>
+      <c r="E47" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F47" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G47" s="1">
+        <v>43</v>
+      </c>
+      <c r="H47" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M47" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N47" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V47" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W47" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AN47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+    </row>
+    <row r="48" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2">
+        <v>31</v>
+      </c>
+      <c r="C48" s="2">
+        <v>24</v>
+      </c>
+      <c r="D48" s="2">
+        <v>17704540</v>
+      </c>
+      <c r="E48" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F48" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N48" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V48" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W48" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AS48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+    </row>
+    <row r="49" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E49" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F49" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G49" s="1">
+        <v>12</v>
+      </c>
+      <c r="H49" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M49" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N49" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V49" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W49" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2">
+        <v>31</v>
+      </c>
+      <c r="C50" s="2">
+        <v>24</v>
+      </c>
+      <c r="D50" s="2">
+        <v>17704491</v>
+      </c>
+      <c r="E50" s="2">
+        <v>41960000000</v>
+      </c>
+      <c r="F50" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G50" s="1">
+        <v>32</v>
+      </c>
+      <c r="H50" s="5">
+        <v>118500</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N50" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V50" s="1">
+        <v>41960000000</v>
+      </c>
+      <c r="W50" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>19441029</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>20020607</v>
+      </c>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1">
+        <v>123</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>6004</v>
+      </c>
+      <c r="AN50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="1">
+        <v>1091</v>
+      </c>
+      <c r="AS50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT50" s="1">
+        <v>53</v>
+      </c>
+      <c r="AU50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+    </row>
+    <row r="51" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2">
+        <v>24</v>
+      </c>
+      <c r="D51" s="2">
+        <v>17704511</v>
+      </c>
+      <c r="E51" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="F51" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G51" s="1">
+        <v>30</v>
+      </c>
+      <c r="H51" s="5">
+        <v>118498</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M51" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N51" s="1">
+        <v>20260730</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V51" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W51" s="1">
+        <v>60000000200</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>19651120</v>
+      </c>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1">
+        <v>118</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AS51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+    </row>
+    <row r="52" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>85</v>
+      </c>
+      <c r="B52" s="2">
+        <v>31</v>
+      </c>
+      <c r="C52" s="2">
+        <v>24</v>
+      </c>
+      <c r="D52" s="2">
+        <v>17704524</v>
+      </c>
+      <c r="E52" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F52" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G52" s="1">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N52" s="1">
+        <v>20251017</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V52" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W52" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>19670305</v>
+      </c>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR52" s="1">
+        <v>1061</v>
+      </c>
+      <c r="AS52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+    </row>
+    <row r="53" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>80</v>
+      </c>
+      <c r="B53" s="2">
+        <v>31</v>
+      </c>
+      <c r="C53" s="2">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2">
+        <v>17704525</v>
+      </c>
+      <c r="E53" s="2">
+        <v>60000001200</v>
+      </c>
+      <c r="F53" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G53" s="1">
+        <v>43</v>
+      </c>
+      <c r="H53" s="1">
+        <v>118518</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N53" s="1">
+        <v>20280419</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V53" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W53" s="1">
+        <v>60000001200</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>19690414</v>
+      </c>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>114</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>6005</v>
+      </c>
+      <c r="AN53" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR53" s="1">
+        <v>1051</v>
+      </c>
+      <c r="AS53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+    </row>
+    <row r="54" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>39</v>
+      </c>
+      <c r="B54" s="2">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2">
+        <v>17704540</v>
+      </c>
+      <c r="E54" s="2">
+        <v>60000000400</v>
+      </c>
+      <c r="F54" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M54" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N54" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V54" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W54" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>1005</v>
+      </c>
+      <c r="AN54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR54" s="1">
+        <v>1032</v>
+      </c>
+      <c r="AS54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+    </row>
+    <row r="55" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>16</v>
+      </c>
+      <c r="B55" s="2">
+        <v>31</v>
+      </c>
+      <c r="C55" s="2">
+        <v>24</v>
+      </c>
+      <c r="D55" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E55" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F55" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G55" s="1">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M55" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N55" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V55" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W55" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR55" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2523,13 +8365,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
@@ -4962,6 +10809,536 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>17704492</v>
+      </c>
+      <c r="E26" s="2">
+        <v>60000001100</v>
+      </c>
+      <c r="F26" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G26" s="1">
+        <v>49</v>
+      </c>
+      <c r="H26" s="8">
+        <v>118518</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N26" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V26" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W26" s="1">
+        <v>60000001100</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>20110125</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>802</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>121</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>6020</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>1081</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>17704531</v>
+      </c>
+      <c r="E28" s="2">
+        <v>60000000600</v>
+      </c>
+      <c r="F28" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G28" s="1">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1">
+        <v>118452</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N28" s="1">
+        <v>20271027</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V28" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W28" s="1">
+        <v>60000000500</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>19740510</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1">
+        <v>1150</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1">
+        <v>35850585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>17704526</v>
+      </c>
+      <c r="E31" s="2">
+        <v>60000000700</v>
+      </c>
+      <c r="F31" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N31" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V31" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W31" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>802</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>108</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>1047</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>1041</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2">
+        <v>17704532</v>
+      </c>
+      <c r="E32" s="2">
+        <v>60000000800</v>
+      </c>
+      <c r="F32" s="2">
+        <v>20800101</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>118448</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="1">
+        <v>421017000</v>
+      </c>
+      <c r="N32" s="1">
+        <v>20491231</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V32" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="W32" s="1">
+        <v>60000000400</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>19540218</v>
+      </c>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>801</v>
+      </c>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1">
+        <v>1068</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>1002</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
